--- a/中比分选机与MES通讯增加地址详细信息.xlsx
+++ b/中比分选机与MES通讯增加地址详细信息.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2507" uniqueCount="971">
   <si>
     <t>首件检验参数</t>
   </si>
@@ -3536,6 +3536,10 @@
   </si>
   <si>
     <t>Exp_DxV10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SJ_Work</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3695,7 +3699,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3771,6 +3775,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3785,12 +3798,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4093,8 +4100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B152" sqref="B152:F159"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4108,15 +4115,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="B2" s="13" t="s">
@@ -4136,10 +4143,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
+      <c r="B3" s="24" t="s">
+        <v>970</v>
+      </c>
       <c r="C3" t="s">
         <v>287</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="32" t="s">
         <v>296</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -4159,7 +4169,7 @@
       <c r="C4" t="s">
         <v>291</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
@@ -4177,7 +4187,7 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
@@ -4195,7 +4205,7 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
@@ -4213,7 +4223,7 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
@@ -4231,7 +4241,7 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
@@ -4246,7 +4256,7 @@
       <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4261,7 +4271,7 @@
       <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="27"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
@@ -4276,7 +4286,7 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
@@ -4291,7 +4301,7 @@
       <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="1" t="s">
         <v>7</v>
       </c>
@@ -4306,7 +4316,7 @@
       <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="1" t="s">
         <v>7</v>
       </c>
@@ -4321,7 +4331,7 @@
       <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="27"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="1" t="s">
         <v>7</v>
       </c>
@@ -4336,7 +4346,7 @@
       <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="27"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="1" t="s">
         <v>7</v>
       </c>
@@ -4351,7 +4361,7 @@
       <c r="C16" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="27"/>
+      <c r="D16" s="30"/>
       <c r="E16" s="1" t="s">
         <v>7</v>
       </c>
@@ -4366,7 +4376,7 @@
       <c r="C17" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="27"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="1" t="s">
         <v>7</v>
       </c>
@@ -4381,7 +4391,7 @@
       <c r="C18" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="27"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="1" t="s">
         <v>7</v>
       </c>
@@ -4396,7 +4406,7 @@
       <c r="C19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="27"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="1" t="s">
         <v>7</v>
       </c>
@@ -4411,7 +4421,7 @@
       <c r="C20" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="27"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="1" t="s">
         <v>7</v>
       </c>
@@ -4426,7 +4436,7 @@
       <c r="C21" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="27"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="1" t="s">
         <v>7</v>
       </c>
@@ -4441,7 +4451,7 @@
       <c r="C22" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="27"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="1" t="s">
         <v>7</v>
       </c>
@@ -4456,7 +4466,7 @@
       <c r="C23" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="27"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="1" t="s">
         <v>7</v>
       </c>
@@ -4471,7 +4481,7 @@
       <c r="C24" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="27"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="1" t="s">
         <v>7</v>
       </c>
@@ -4486,7 +4496,7 @@
       <c r="C25" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="27"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="1" t="s">
         <v>7</v>
       </c>
@@ -4501,7 +4511,7 @@
       <c r="C26" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="27"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="1" t="s">
         <v>7</v>
       </c>
@@ -4516,7 +4526,7 @@
       <c r="C27" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="27"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="1" t="s">
         <v>7</v>
       </c>
@@ -4531,7 +4541,7 @@
       <c r="C28" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="27"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="1" t="s">
         <v>7</v>
       </c>
@@ -4546,7 +4556,7 @@
       <c r="C29" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="27"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="1" t="s">
         <v>7</v>
       </c>
@@ -4561,7 +4571,7 @@
       <c r="C30" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="27"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="1" t="s">
         <v>7</v>
       </c>
@@ -4576,7 +4586,7 @@
       <c r="C31" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="27"/>
+      <c r="D31" s="30"/>
       <c r="E31" s="1" t="s">
         <v>7</v>
       </c>
@@ -4591,7 +4601,7 @@
       <c r="C32" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="27"/>
+      <c r="D32" s="30"/>
       <c r="E32" s="1" t="s">
         <v>7</v>
       </c>
@@ -4606,7 +4616,7 @@
       <c r="C33" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="27"/>
+      <c r="D33" s="30"/>
       <c r="E33" s="1" t="s">
         <v>7</v>
       </c>
@@ -4621,7 +4631,7 @@
       <c r="C34" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="27"/>
+      <c r="D34" s="30"/>
       <c r="E34" s="1" t="s">
         <v>7</v>
       </c>
@@ -4636,7 +4646,7 @@
       <c r="C35" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="27"/>
+      <c r="D35" s="30"/>
       <c r="E35" s="1" t="s">
         <v>7</v>
       </c>
@@ -4651,7 +4661,7 @@
       <c r="C36" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="27"/>
+      <c r="D36" s="30"/>
       <c r="E36" s="1" t="s">
         <v>7</v>
       </c>
@@ -4666,7 +4676,7 @@
       <c r="C37" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="27"/>
+      <c r="D37" s="30"/>
       <c r="E37" s="1" t="s">
         <v>7</v>
       </c>
@@ -4681,7 +4691,7 @@
       <c r="C38" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="27"/>
+      <c r="D38" s="30"/>
       <c r="E38" s="1" t="s">
         <v>7</v>
       </c>
@@ -4696,7 +4706,7 @@
       <c r="C39" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="27"/>
+      <c r="D39" s="30"/>
       <c r="E39" s="1" t="s">
         <v>7</v>
       </c>
@@ -4711,7 +4721,7 @@
       <c r="C40" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="27"/>
+      <c r="D40" s="30"/>
       <c r="E40" s="1" t="s">
         <v>7</v>
       </c>
@@ -4726,7 +4736,7 @@
       <c r="C41" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="27"/>
+      <c r="D41" s="30"/>
       <c r="E41" s="1" t="s">
         <v>7</v>
       </c>
@@ -4741,7 +4751,7 @@
       <c r="C42" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="27"/>
+      <c r="D42" s="30"/>
       <c r="E42" s="1" t="s">
         <v>7</v>
       </c>
@@ -4756,7 +4766,7 @@
       <c r="C43" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="27"/>
+      <c r="D43" s="30"/>
       <c r="E43" s="1" t="s">
         <v>7</v>
       </c>
@@ -4771,7 +4781,7 @@
       <c r="C44" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="27"/>
+      <c r="D44" s="30"/>
       <c r="E44" s="1" t="s">
         <v>7</v>
       </c>
@@ -4786,7 +4796,7 @@
       <c r="C45" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="27"/>
+      <c r="D45" s="30"/>
       <c r="E45" s="1" t="s">
         <v>7</v>
       </c>
@@ -4801,7 +4811,7 @@
       <c r="C46" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="27"/>
+      <c r="D46" s="30"/>
       <c r="E46" s="1" t="s">
         <v>7</v>
       </c>
@@ -4816,7 +4826,7 @@
       <c r="C47" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="27"/>
+      <c r="D47" s="30"/>
       <c r="E47" s="1" t="s">
         <v>7</v>
       </c>
@@ -4831,7 +4841,7 @@
       <c r="C48" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="27"/>
+      <c r="D48" s="30"/>
       <c r="E48" s="1" t="s">
         <v>7</v>
       </c>
@@ -4846,7 +4856,7 @@
       <c r="C49" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="27"/>
+      <c r="D49" s="30"/>
       <c r="E49" s="1" t="s">
         <v>7</v>
       </c>
@@ -4861,7 +4871,7 @@
       <c r="C50" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="27"/>
+      <c r="D50" s="30"/>
       <c r="E50" s="1" t="s">
         <v>7</v>
       </c>
@@ -4876,7 +4886,7 @@
       <c r="C51" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="27"/>
+      <c r="D51" s="30"/>
       <c r="E51" s="1" t="s">
         <v>7</v>
       </c>
@@ -4891,7 +4901,7 @@
       <c r="C52" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="27"/>
+      <c r="D52" s="30"/>
       <c r="E52" s="1" t="s">
         <v>7</v>
       </c>
@@ -4906,7 +4916,7 @@
       <c r="C53" t="s">
         <v>60</v>
       </c>
-      <c r="D53" s="27"/>
+      <c r="D53" s="30"/>
       <c r="E53" s="1" t="s">
         <v>7</v>
       </c>
@@ -4921,7 +4931,7 @@
       <c r="C54" t="s">
         <v>61</v>
       </c>
-      <c r="D54" s="27"/>
+      <c r="D54" s="30"/>
       <c r="E54" s="1" t="s">
         <v>7</v>
       </c>
@@ -4936,7 +4946,7 @@
       <c r="C55" t="s">
         <v>62</v>
       </c>
-      <c r="D55" s="27"/>
+      <c r="D55" s="30"/>
       <c r="E55" s="1" t="s">
         <v>7</v>
       </c>
@@ -4951,7 +4961,7 @@
       <c r="C56" t="s">
         <v>63</v>
       </c>
-      <c r="D56" s="27"/>
+      <c r="D56" s="30"/>
       <c r="E56" s="1" t="s">
         <v>7</v>
       </c>
@@ -4966,7 +4976,7 @@
       <c r="C57" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="27"/>
+      <c r="D57" s="30"/>
       <c r="E57" s="1" t="s">
         <v>7</v>
       </c>
@@ -4981,7 +4991,7 @@
       <c r="C58" t="s">
         <v>65</v>
       </c>
-      <c r="D58" s="27"/>
+      <c r="D58" s="30"/>
       <c r="E58" s="1" t="s">
         <v>7</v>
       </c>
@@ -4996,7 +5006,7 @@
       <c r="C59" t="s">
         <v>66</v>
       </c>
-      <c r="D59" s="27"/>
+      <c r="D59" s="30"/>
       <c r="E59" s="1" t="s">
         <v>7</v>
       </c>
@@ -5011,7 +5021,7 @@
       <c r="C60" t="s">
         <v>67</v>
       </c>
-      <c r="D60" s="27"/>
+      <c r="D60" s="30"/>
       <c r="E60" s="1" t="s">
         <v>7</v>
       </c>
@@ -5026,7 +5036,7 @@
       <c r="C61" t="s">
         <v>68</v>
       </c>
-      <c r="D61" s="27"/>
+      <c r="D61" s="30"/>
       <c r="E61" s="1" t="s">
         <v>7</v>
       </c>
@@ -5041,7 +5051,7 @@
       <c r="C62" t="s">
         <v>69</v>
       </c>
-      <c r="D62" s="27"/>
+      <c r="D62" s="30"/>
       <c r="E62" s="1" t="s">
         <v>7</v>
       </c>
@@ -5056,7 +5066,7 @@
       <c r="C63" t="s">
         <v>70</v>
       </c>
-      <c r="D63" s="27"/>
+      <c r="D63" s="30"/>
       <c r="E63" s="1" t="s">
         <v>7</v>
       </c>
@@ -5071,7 +5081,7 @@
       <c r="C64" t="s">
         <v>71</v>
       </c>
-      <c r="D64" s="27"/>
+      <c r="D64" s="30"/>
       <c r="E64" s="1" t="s">
         <v>7</v>
       </c>
@@ -5086,7 +5096,7 @@
       <c r="C65" t="s">
         <v>72</v>
       </c>
-      <c r="D65" s="27"/>
+      <c r="D65" s="30"/>
       <c r="E65" s="1" t="s">
         <v>7</v>
       </c>
@@ -5101,7 +5111,7 @@
       <c r="C66" t="s">
         <v>73</v>
       </c>
-      <c r="D66" s="27"/>
+      <c r="D66" s="30"/>
       <c r="E66" s="1" t="s">
         <v>7</v>
       </c>
@@ -5116,7 +5126,7 @@
       <c r="C67" t="s">
         <v>74</v>
       </c>
-      <c r="D67" s="27"/>
+      <c r="D67" s="30"/>
       <c r="E67" s="1" t="s">
         <v>7</v>
       </c>
@@ -5130,7 +5140,7 @@
       <c r="C68" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D68" s="28" t="s">
+      <c r="D68" s="31" t="s">
         <v>293</v>
       </c>
       <c r="E68" s="15" t="s">
@@ -5146,7 +5156,7 @@
       <c r="C69" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D69" s="28"/>
+      <c r="D69" s="31"/>
       <c r="E69" s="15" t="s">
         <v>7</v>
       </c>
@@ -5160,7 +5170,7 @@
       <c r="C70" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D70" s="28"/>
+      <c r="D70" s="31"/>
       <c r="E70" s="15" t="s">
         <v>7</v>
       </c>
@@ -5174,7 +5184,7 @@
       <c r="C71" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D71" s="28"/>
+      <c r="D71" s="31"/>
       <c r="E71" s="15" t="s">
         <v>7</v>
       </c>
@@ -5188,7 +5198,7 @@
       <c r="C72" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D72" s="28"/>
+      <c r="D72" s="31"/>
       <c r="E72" s="15" t="s">
         <v>7</v>
       </c>
@@ -5202,7 +5212,7 @@
       <c r="C73" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D73" s="28"/>
+      <c r="D73" s="31"/>
       <c r="E73" s="15" t="s">
         <v>7</v>
       </c>
@@ -5216,7 +5226,7 @@
       <c r="C74" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D74" s="28"/>
+      <c r="D74" s="31"/>
       <c r="E74" s="15" t="s">
         <v>7</v>
       </c>
@@ -5230,7 +5240,7 @@
       <c r="C75" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D75" s="28"/>
+      <c r="D75" s="31"/>
       <c r="E75" s="15" t="s">
         <v>7</v>
       </c>
@@ -5244,7 +5254,7 @@
       <c r="C76" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D76" s="28"/>
+      <c r="D76" s="31"/>
       <c r="E76" s="15" t="s">
         <v>7</v>
       </c>
@@ -5258,7 +5268,7 @@
       <c r="C77" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D77" s="28"/>
+      <c r="D77" s="31"/>
       <c r="E77" s="15" t="s">
         <v>7</v>
       </c>
@@ -5272,7 +5282,7 @@
       <c r="C78" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D78" s="28"/>
+      <c r="D78" s="31"/>
       <c r="E78" s="15" t="s">
         <v>7</v>
       </c>
@@ -5286,7 +5296,7 @@
       <c r="C79" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D79" s="28"/>
+      <c r="D79" s="31"/>
       <c r="E79" s="15" t="s">
         <v>7</v>
       </c>
@@ -5300,7 +5310,7 @@
       <c r="C80" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D80" s="28"/>
+      <c r="D80" s="31"/>
       <c r="E80" s="15" t="s">
         <v>7</v>
       </c>
@@ -5314,7 +5324,7 @@
       <c r="C81" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D81" s="28"/>
+      <c r="D81" s="31"/>
       <c r="E81" s="15" t="s">
         <v>7</v>
       </c>
@@ -5328,7 +5338,7 @@
       <c r="C82" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D82" s="28"/>
+      <c r="D82" s="31"/>
       <c r="E82" s="15" t="s">
         <v>7</v>
       </c>
@@ -5342,7 +5352,7 @@
       <c r="C83" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D83" s="28"/>
+      <c r="D83" s="31"/>
       <c r="E83" s="15" t="s">
         <v>7</v>
       </c>
@@ -5642,7 +5652,7 @@
       <c r="C100" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D100" s="28" t="s">
+      <c r="D100" s="31" t="s">
         <v>292</v>
       </c>
       <c r="E100" s="1" t="s">
@@ -5659,7 +5669,7 @@
       <c r="C101" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D101" s="28"/>
+      <c r="D101" s="31"/>
       <c r="E101" s="1" t="s">
         <v>91</v>
       </c>
@@ -5674,7 +5684,7 @@
       <c r="C102" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D102" s="28"/>
+      <c r="D102" s="31"/>
       <c r="E102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5689,7 +5699,7 @@
       <c r="C103" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D103" s="28"/>
+      <c r="D103" s="31"/>
       <c r="E103" s="1" t="s">
         <v>91</v>
       </c>
@@ -5701,76 +5711,76 @@
       </c>
     </row>
     <row r="107" spans="2:7">
-      <c r="C107" s="26" t="s">
+      <c r="C107" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="D107" s="26"/>
-      <c r="E107" s="26"/>
-      <c r="F107" s="26"/>
-      <c r="G107" s="26"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="29"/>
     </row>
     <row r="108" spans="2:7">
-      <c r="C108" s="26"/>
-      <c r="D108" s="26"/>
-      <c r="E108" s="26"/>
-      <c r="F108" s="26"/>
-      <c r="G108" s="26"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="29"/>
     </row>
     <row r="109" spans="2:7">
-      <c r="C109" s="26"/>
-      <c r="D109" s="26"/>
-      <c r="E109" s="26"/>
-      <c r="F109" s="26"/>
-      <c r="G109" s="26"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
     </row>
     <row r="110" spans="2:7">
-      <c r="C110" s="26"/>
-      <c r="D110" s="26"/>
-      <c r="E110" s="26"/>
-      <c r="F110" s="26"/>
-      <c r="G110" s="26"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="29"/>
     </row>
     <row r="111" spans="2:7">
-      <c r="C111" s="26"/>
-      <c r="D111" s="26"/>
-      <c r="E111" s="26"/>
-      <c r="F111" s="26"/>
-      <c r="G111" s="26"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="29"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="29"/>
     </row>
     <row r="112" spans="2:7">
-      <c r="C112" s="26"/>
-      <c r="D112" s="26"/>
-      <c r="E112" s="26"/>
-      <c r="F112" s="26"/>
-      <c r="G112" s="26"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="29"/>
+      <c r="F112" s="29"/>
+      <c r="G112" s="29"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="C113" s="26"/>
-      <c r="D113" s="26"/>
-      <c r="E113" s="26"/>
-      <c r="F113" s="26"/>
-      <c r="G113" s="26"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="29"/>
     </row>
     <row r="114" spans="1:7" s="6" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A114" s="25" t="s">
+      <c r="A114" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="B114" s="25"/>
-      <c r="C114" s="25"/>
-      <c r="D114" s="25"/>
-      <c r="E114" s="25"/>
-      <c r="F114" s="25"/>
-      <c r="G114" s="25"/>
+      <c r="B114" s="28"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="28"/>
+      <c r="E114" s="28"/>
+      <c r="F114" s="28"/>
+      <c r="G114" s="28"/>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="24" t="s">
+      <c r="A115" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B115" s="24"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="24"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="24"/>
+      <c r="B115" s="27"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="27"/>
+      <c r="F115" s="27"/>
       <c r="G115" s="9"/>
     </row>
     <row r="116" spans="1:7" s="1" customFormat="1">
@@ -7404,7 +7414,7 @@
       <c r="C235" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D235" s="28" t="s">
+      <c r="D235" s="31" t="s">
         <v>295</v>
       </c>
       <c r="E235" s="1" t="s">
@@ -7418,7 +7428,7 @@
       <c r="C236" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="D236" s="28"/>
+      <c r="D236" s="31"/>
       <c r="E236" s="1" t="s">
         <v>91</v>
       </c>
@@ -7430,7 +7440,7 @@
       <c r="C237" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="D237" s="28"/>
+      <c r="D237" s="31"/>
       <c r="E237" s="1" t="s">
         <v>91</v>
       </c>
@@ -7442,7 +7452,7 @@
       <c r="C238" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="D238" s="28"/>
+      <c r="D238" s="31"/>
       <c r="E238" s="1" t="s">
         <v>91</v>
       </c>
@@ -7454,7 +7464,7 @@
       <c r="C239" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="D239" s="28"/>
+      <c r="D239" s="31"/>
       <c r="E239" s="1" t="s">
         <v>91</v>
       </c>
@@ -7466,7 +7476,7 @@
       <c r="C240" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="D240" s="28"/>
+      <c r="D240" s="31"/>
       <c r="E240" s="1" t="s">
         <v>91</v>
       </c>
@@ -7478,7 +7488,7 @@
       <c r="C241" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="D241" s="28"/>
+      <c r="D241" s="31"/>
       <c r="E241" s="1" t="s">
         <v>91</v>
       </c>
@@ -7490,7 +7500,7 @@
       <c r="C242" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="D242" s="28"/>
+      <c r="D242" s="31"/>
       <c r="E242" s="1" t="s">
         <v>91</v>
       </c>
@@ -7502,7 +7512,7 @@
       <c r="C243" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="D243" s="28"/>
+      <c r="D243" s="31"/>
       <c r="E243" s="1" t="s">
         <v>91</v>
       </c>
@@ -7514,7 +7524,7 @@
       <c r="C244" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="D244" s="28"/>
+      <c r="D244" s="31"/>
       <c r="E244" s="1" t="s">
         <v>91</v>
       </c>
@@ -7526,7 +7536,7 @@
       <c r="C245" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="D245" s="28"/>
+      <c r="D245" s="31"/>
       <c r="E245" s="1" t="s">
         <v>91</v>
       </c>
@@ -7538,7 +7548,7 @@
       <c r="C246" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="D246" s="28"/>
+      <c r="D246" s="31"/>
       <c r="E246" s="1" t="s">
         <v>91</v>
       </c>
@@ -7550,7 +7560,7 @@
       <c r="C247" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="D247" s="28"/>
+      <c r="D247" s="31"/>
       <c r="E247" s="1" t="s">
         <v>91</v>
       </c>
@@ -7562,7 +7572,7 @@
       <c r="C248" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="D248" s="28"/>
+      <c r="D248" s="31"/>
       <c r="E248" s="1" t="s">
         <v>91</v>
       </c>
@@ -7574,7 +7584,7 @@
       <c r="C249" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="D249" s="28"/>
+      <c r="D249" s="31"/>
       <c r="E249" s="1" t="s">
         <v>91</v>
       </c>
@@ -7586,7 +7596,7 @@
       <c r="C250" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="D250" s="28"/>
+      <c r="D250" s="31"/>
       <c r="E250" s="1" t="s">
         <v>91</v>
       </c>
@@ -7598,7 +7608,7 @@
       <c r="C251" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="D251" s="28"/>
+      <c r="D251" s="31"/>
       <c r="E251" s="1" t="s">
         <v>91</v>
       </c>
@@ -7610,7 +7620,7 @@
       <c r="C252" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="D252" s="28"/>
+      <c r="D252" s="31"/>
       <c r="E252" s="1" t="s">
         <v>91</v>
       </c>
@@ -7629,7 +7639,7 @@
       <c r="C254" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="D254" s="29" t="s">
+      <c r="D254" s="32" t="s">
         <v>502</v>
       </c>
       <c r="E254" s="1" t="s">
@@ -7646,7 +7656,7 @@
       <c r="C255" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="D255" s="29"/>
+      <c r="D255" s="32"/>
       <c r="E255" s="1" t="s">
         <v>7</v>
       </c>
@@ -7661,7 +7671,7 @@
       <c r="C256" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="D256" s="29"/>
+      <c r="D256" s="32"/>
       <c r="E256" s="1" t="s">
         <v>7</v>
       </c>
@@ -7676,7 +7686,7 @@
       <c r="C257" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="D257" s="29"/>
+      <c r="D257" s="32"/>
       <c r="E257" s="1" t="s">
         <v>7</v>
       </c>
@@ -7691,7 +7701,7 @@
       <c r="C258" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="D258" s="29"/>
+      <c r="D258" s="32"/>
       <c r="E258" s="1" t="s">
         <v>7</v>
       </c>
@@ -7706,7 +7716,7 @@
       <c r="C259" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="D259" s="29"/>
+      <c r="D259" s="32"/>
       <c r="E259" s="1" t="s">
         <v>7</v>
       </c>
@@ -7721,7 +7731,7 @@
       <c r="C260" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="D260" s="29"/>
+      <c r="D260" s="32"/>
       <c r="E260" s="1" t="s">
         <v>7</v>
       </c>
@@ -7736,7 +7746,7 @@
       <c r="C261" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="D261" s="29"/>
+      <c r="D261" s="32"/>
       <c r="E261" s="1" t="s">
         <v>7</v>
       </c>
@@ -7751,7 +7761,7 @@
       <c r="C262" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="D262" s="29"/>
+      <c r="D262" s="32"/>
       <c r="E262" s="1" t="s">
         <v>7</v>
       </c>
@@ -7766,7 +7776,7 @@
       <c r="C263" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="D263" s="29"/>
+      <c r="D263" s="32"/>
       <c r="E263" s="1" t="s">
         <v>7</v>
       </c>
@@ -7781,7 +7791,7 @@
       <c r="C264" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="D264" s="29"/>
+      <c r="D264" s="32"/>
       <c r="E264" s="1" t="s">
         <v>7</v>
       </c>
@@ -7796,7 +7806,7 @@
       <c r="C265" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="D265" s="29"/>
+      <c r="D265" s="32"/>
       <c r="E265" s="1" t="s">
         <v>7</v>
       </c>
@@ -7811,7 +7821,7 @@
       <c r="C266" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="D266" s="29"/>
+      <c r="D266" s="32"/>
       <c r="E266" s="1" t="s">
         <v>7</v>
       </c>
@@ -7826,7 +7836,7 @@
       <c r="C267" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="D267" s="29"/>
+      <c r="D267" s="32"/>
       <c r="E267" s="1" t="s">
         <v>7</v>
       </c>
@@ -7841,7 +7851,7 @@
       <c r="C268" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="D268" s="29"/>
+      <c r="D268" s="32"/>
       <c r="E268" s="1" t="s">
         <v>7</v>
       </c>
@@ -7856,7 +7866,7 @@
       <c r="C269" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="D269" s="29"/>
+      <c r="D269" s="32"/>
       <c r="E269" s="1" t="s">
         <v>7</v>
       </c>
@@ -7871,7 +7881,7 @@
       <c r="C270" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="D270" s="29"/>
+      <c r="D270" s="32"/>
       <c r="E270" s="1" t="s">
         <v>7</v>
       </c>
@@ -7886,7 +7896,7 @@
       <c r="C271" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="D271" s="29"/>
+      <c r="D271" s="32"/>
       <c r="E271" s="1" t="s">
         <v>7</v>
       </c>
@@ -7901,7 +7911,7 @@
       <c r="C272" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="D272" s="29"/>
+      <c r="D272" s="32"/>
       <c r="E272" s="1" t="s">
         <v>7</v>
       </c>
@@ -7916,7 +7926,7 @@
       <c r="C273" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="D273" s="29"/>
+      <c r="D273" s="32"/>
       <c r="E273" s="1" t="s">
         <v>7</v>
       </c>
@@ -7929,102 +7939,102 @@
       <c r="D274" s="10"/>
     </row>
     <row r="275" spans="2:6">
-      <c r="C275" s="27" t="s">
+      <c r="C275" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="D275" s="27"/>
-      <c r="E275" s="27"/>
-      <c r="F275" s="27"/>
+      <c r="D275" s="30"/>
+      <c r="E275" s="30"/>
+      <c r="F275" s="30"/>
     </row>
     <row r="276" spans="2:6">
-      <c r="C276" s="27"/>
-      <c r="D276" s="27"/>
-      <c r="E276" s="27"/>
-      <c r="F276" s="27"/>
+      <c r="C276" s="30"/>
+      <c r="D276" s="30"/>
+      <c r="E276" s="30"/>
+      <c r="F276" s="30"/>
     </row>
     <row r="277" spans="2:6">
-      <c r="C277" s="27"/>
-      <c r="D277" s="27"/>
-      <c r="E277" s="27"/>
-      <c r="F277" s="27"/>
+      <c r="C277" s="30"/>
+      <c r="D277" s="30"/>
+      <c r="E277" s="30"/>
+      <c r="F277" s="30"/>
     </row>
     <row r="278" spans="2:6">
-      <c r="C278" s="27"/>
-      <c r="D278" s="27"/>
-      <c r="E278" s="27"/>
-      <c r="F278" s="27"/>
+      <c r="C278" s="30"/>
+      <c r="D278" s="30"/>
+      <c r="E278" s="30"/>
+      <c r="F278" s="30"/>
     </row>
     <row r="279" spans="2:6">
-      <c r="C279" s="27"/>
-      <c r="D279" s="27"/>
-      <c r="E279" s="27"/>
-      <c r="F279" s="27"/>
+      <c r="C279" s="30"/>
+      <c r="D279" s="30"/>
+      <c r="E279" s="30"/>
+      <c r="F279" s="30"/>
     </row>
     <row r="280" spans="2:6">
-      <c r="C280" s="27"/>
-      <c r="D280" s="27"/>
-      <c r="E280" s="27"/>
-      <c r="F280" s="27"/>
+      <c r="C280" s="30"/>
+      <c r="D280" s="30"/>
+      <c r="E280" s="30"/>
+      <c r="F280" s="30"/>
     </row>
     <row r="281" spans="2:6">
-      <c r="C281" s="27"/>
-      <c r="D281" s="27"/>
-      <c r="E281" s="27"/>
-      <c r="F281" s="27"/>
+      <c r="C281" s="30"/>
+      <c r="D281" s="30"/>
+      <c r="E281" s="30"/>
+      <c r="F281" s="30"/>
     </row>
     <row r="282" spans="2:6">
-      <c r="C282" s="27"/>
-      <c r="D282" s="27"/>
-      <c r="E282" s="27"/>
-      <c r="F282" s="27"/>
+      <c r="C282" s="30"/>
+      <c r="D282" s="30"/>
+      <c r="E282" s="30"/>
+      <c r="F282" s="30"/>
     </row>
     <row r="283" spans="2:6">
-      <c r="C283" s="27"/>
-      <c r="D283" s="27"/>
-      <c r="E283" s="27"/>
-      <c r="F283" s="27"/>
+      <c r="C283" s="30"/>
+      <c r="D283" s="30"/>
+      <c r="E283" s="30"/>
+      <c r="F283" s="30"/>
     </row>
     <row r="284" spans="2:6">
-      <c r="C284" s="27"/>
-      <c r="D284" s="27"/>
-      <c r="E284" s="27"/>
-      <c r="F284" s="27"/>
+      <c r="C284" s="30"/>
+      <c r="D284" s="30"/>
+      <c r="E284" s="30"/>
+      <c r="F284" s="30"/>
     </row>
     <row r="285" spans="2:6">
-      <c r="C285" s="27"/>
-      <c r="D285" s="27"/>
-      <c r="E285" s="27"/>
-      <c r="F285" s="27"/>
+      <c r="C285" s="30"/>
+      <c r="D285" s="30"/>
+      <c r="E285" s="30"/>
+      <c r="F285" s="30"/>
     </row>
     <row r="286" spans="2:6">
-      <c r="C286" s="27"/>
-      <c r="D286" s="27"/>
-      <c r="E286" s="27"/>
-      <c r="F286" s="27"/>
+      <c r="C286" s="30"/>
+      <c r="D286" s="30"/>
+      <c r="E286" s="30"/>
+      <c r="F286" s="30"/>
     </row>
     <row r="287" spans="2:6">
-      <c r="C287" s="27"/>
-      <c r="D287" s="27"/>
-      <c r="E287" s="27"/>
-      <c r="F287" s="27"/>
+      <c r="C287" s="30"/>
+      <c r="D287" s="30"/>
+      <c r="E287" s="30"/>
+      <c r="F287" s="30"/>
     </row>
     <row r="288" spans="2:6">
-      <c r="C288" s="27"/>
-      <c r="D288" s="27"/>
-      <c r="E288" s="27"/>
-      <c r="F288" s="27"/>
+      <c r="C288" s="30"/>
+      <c r="D288" s="30"/>
+      <c r="E288" s="30"/>
+      <c r="F288" s="30"/>
     </row>
     <row r="289" spans="3:6">
-      <c r="C289" s="27"/>
-      <c r="D289" s="27"/>
-      <c r="E289" s="27"/>
-      <c r="F289" s="27"/>
+      <c r="C289" s="30"/>
+      <c r="D289" s="30"/>
+      <c r="E289" s="30"/>
+      <c r="F289" s="30"/>
     </row>
     <row r="290" spans="3:6">
-      <c r="C290" s="27"/>
-      <c r="D290" s="27"/>
-      <c r="E290" s="27"/>
-      <c r="F290" s="27"/>
+      <c r="C290" s="30"/>
+      <c r="D290" s="30"/>
+      <c r="E290" s="30"/>
+      <c r="F290" s="30"/>
     </row>
     <row r="291" spans="3:6">
       <c r="C291" s="10"/>
@@ -8277,18 +8287,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10" s="17" customFormat="1">
       <c r="B2" s="17" t="s">
@@ -8314,7 +8324,7 @@
       <c r="C3" t="s">
         <v>287</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="32" t="s">
         <v>296</v>
       </c>
       <c r="E3" s="17" t="s">
@@ -8334,7 +8344,7 @@
       <c r="C4" t="s">
         <v>291</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="17" t="s">
         <v>7</v>
       </c>
@@ -8352,7 +8362,7 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="17" t="s">
         <v>7</v>
       </c>
@@ -8370,7 +8380,7 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="17" t="s">
         <v>7</v>
       </c>
@@ -8388,7 +8398,7 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="17" t="s">
         <v>7</v>
       </c>
@@ -8406,7 +8416,7 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="17" t="s">
         <v>7</v>
       </c>
@@ -8421,7 +8431,7 @@
       <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="17" t="s">
         <v>7</v>
       </c>
@@ -8436,7 +8446,7 @@
       <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="27"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="17" t="s">
         <v>7</v>
       </c>
@@ -8451,7 +8461,7 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="17" t="s">
         <v>7</v>
       </c>
@@ -8466,7 +8476,7 @@
       <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="17" t="s">
         <v>7</v>
       </c>
@@ -8481,7 +8491,7 @@
       <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="17" t="s">
         <v>7</v>
       </c>
@@ -8496,7 +8506,7 @@
       <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="27"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="17" t="s">
         <v>7</v>
       </c>
@@ -8511,7 +8521,7 @@
       <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="27"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="17" t="s">
         <v>7</v>
       </c>
@@ -8526,7 +8536,7 @@
       <c r="C16" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="27"/>
+      <c r="D16" s="30"/>
       <c r="E16" s="17" t="s">
         <v>7</v>
       </c>
@@ -8541,7 +8551,7 @@
       <c r="C17" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="27"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="17" t="s">
         <v>7</v>
       </c>
@@ -8556,7 +8566,7 @@
       <c r="C18" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="27"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="17" t="s">
         <v>7</v>
       </c>
@@ -8571,7 +8581,7 @@
       <c r="C19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="27"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="17" t="s">
         <v>7</v>
       </c>
@@ -8586,7 +8596,7 @@
       <c r="C20" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="27"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="17" t="s">
         <v>7</v>
       </c>
@@ -8601,7 +8611,7 @@
       <c r="C21" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="27"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="17" t="s">
         <v>7</v>
       </c>
@@ -8616,7 +8626,7 @@
       <c r="C22" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="27"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="17" t="s">
         <v>7</v>
       </c>
@@ -8631,7 +8641,7 @@
       <c r="C23" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="27"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="17" t="s">
         <v>7</v>
       </c>
@@ -8646,7 +8656,7 @@
       <c r="C24" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="27"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="17" t="s">
         <v>7</v>
       </c>
@@ -8661,7 +8671,7 @@
       <c r="C25" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="27"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="17" t="s">
         <v>7</v>
       </c>
@@ -8676,7 +8686,7 @@
       <c r="C26" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="27"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="17" t="s">
         <v>7</v>
       </c>
@@ -8691,7 +8701,7 @@
       <c r="C27" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="27"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="17" t="s">
         <v>7</v>
       </c>
@@ -8706,7 +8716,7 @@
       <c r="C28" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="27"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="17" t="s">
         <v>7</v>
       </c>
@@ -8721,7 +8731,7 @@
       <c r="C29" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="27"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="17" t="s">
         <v>7</v>
       </c>
@@ -8736,7 +8746,7 @@
       <c r="C30" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="27"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="17" t="s">
         <v>7</v>
       </c>
@@ -8751,7 +8761,7 @@
       <c r="C31" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="27"/>
+      <c r="D31" s="30"/>
       <c r="E31" s="17" t="s">
         <v>7</v>
       </c>
@@ -8766,7 +8776,7 @@
       <c r="C32" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="27"/>
+      <c r="D32" s="30"/>
       <c r="E32" s="17" t="s">
         <v>7</v>
       </c>
@@ -8781,7 +8791,7 @@
       <c r="C33" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="27"/>
+      <c r="D33" s="30"/>
       <c r="E33" s="17" t="s">
         <v>7</v>
       </c>
@@ -8796,7 +8806,7 @@
       <c r="C34" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="27"/>
+      <c r="D34" s="30"/>
       <c r="E34" s="17" t="s">
         <v>7</v>
       </c>
@@ -8811,7 +8821,7 @@
       <c r="C35" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="27"/>
+      <c r="D35" s="30"/>
       <c r="E35" s="17" t="s">
         <v>7</v>
       </c>
@@ -8826,7 +8836,7 @@
       <c r="C36" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="27"/>
+      <c r="D36" s="30"/>
       <c r="E36" s="17" t="s">
         <v>7</v>
       </c>
@@ -8841,7 +8851,7 @@
       <c r="C37" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="27"/>
+      <c r="D37" s="30"/>
       <c r="E37" s="17" t="s">
         <v>7</v>
       </c>
@@ -8856,7 +8866,7 @@
       <c r="C38" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="27"/>
+      <c r="D38" s="30"/>
       <c r="E38" s="17" t="s">
         <v>7</v>
       </c>
@@ -8871,7 +8881,7 @@
       <c r="C39" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="27"/>
+      <c r="D39" s="30"/>
       <c r="E39" s="17" t="s">
         <v>7</v>
       </c>
@@ -8886,7 +8896,7 @@
       <c r="C40" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="27"/>
+      <c r="D40" s="30"/>
       <c r="E40" s="17" t="s">
         <v>7</v>
       </c>
@@ -8901,7 +8911,7 @@
       <c r="C41" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="27"/>
+      <c r="D41" s="30"/>
       <c r="E41" s="17" t="s">
         <v>7</v>
       </c>
@@ -8916,7 +8926,7 @@
       <c r="C42" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="27"/>
+      <c r="D42" s="30"/>
       <c r="E42" s="17" t="s">
         <v>7</v>
       </c>
@@ -8931,7 +8941,7 @@
       <c r="C43" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="27"/>
+      <c r="D43" s="30"/>
       <c r="E43" s="17" t="s">
         <v>7</v>
       </c>
@@ -8946,7 +8956,7 @@
       <c r="C44" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="27"/>
+      <c r="D44" s="30"/>
       <c r="E44" s="17" t="s">
         <v>7</v>
       </c>
@@ -8961,7 +8971,7 @@
       <c r="C45" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="27"/>
+      <c r="D45" s="30"/>
       <c r="E45" s="17" t="s">
         <v>7</v>
       </c>
@@ -8976,7 +8986,7 @@
       <c r="C46" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="27"/>
+      <c r="D46" s="30"/>
       <c r="E46" s="17" t="s">
         <v>7</v>
       </c>
@@ -8991,7 +9001,7 @@
       <c r="C47" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="27"/>
+      <c r="D47" s="30"/>
       <c r="E47" s="17" t="s">
         <v>7</v>
       </c>
@@ -9006,7 +9016,7 @@
       <c r="C48" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="27"/>
+      <c r="D48" s="30"/>
       <c r="E48" s="17" t="s">
         <v>7</v>
       </c>
@@ -9021,7 +9031,7 @@
       <c r="C49" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="27"/>
+      <c r="D49" s="30"/>
       <c r="E49" s="17" t="s">
         <v>7</v>
       </c>
@@ -9036,7 +9046,7 @@
       <c r="C50" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="27"/>
+      <c r="D50" s="30"/>
       <c r="E50" s="17" t="s">
         <v>7</v>
       </c>
@@ -9051,7 +9061,7 @@
       <c r="C51" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="27"/>
+      <c r="D51" s="30"/>
       <c r="E51" s="17" t="s">
         <v>7</v>
       </c>
@@ -9066,7 +9076,7 @@
       <c r="C52" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="27"/>
+      <c r="D52" s="30"/>
       <c r="E52" s="17" t="s">
         <v>7</v>
       </c>
@@ -9081,7 +9091,7 @@
       <c r="C53" t="s">
         <v>60</v>
       </c>
-      <c r="D53" s="27"/>
+      <c r="D53" s="30"/>
       <c r="E53" s="17" t="s">
         <v>7</v>
       </c>
@@ -9096,7 +9106,7 @@
       <c r="C54" t="s">
         <v>61</v>
       </c>
-      <c r="D54" s="27"/>
+      <c r="D54" s="30"/>
       <c r="E54" s="17" t="s">
         <v>7</v>
       </c>
@@ -9111,7 +9121,7 @@
       <c r="C55" t="s">
         <v>62</v>
       </c>
-      <c r="D55" s="27"/>
+      <c r="D55" s="30"/>
       <c r="E55" s="17" t="s">
         <v>7</v>
       </c>
@@ -9126,7 +9136,7 @@
       <c r="C56" t="s">
         <v>63</v>
       </c>
-      <c r="D56" s="27"/>
+      <c r="D56" s="30"/>
       <c r="E56" s="17" t="s">
         <v>7</v>
       </c>
@@ -9141,7 +9151,7 @@
       <c r="C57" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="27"/>
+      <c r="D57" s="30"/>
       <c r="E57" s="17" t="s">
         <v>7</v>
       </c>
@@ -9156,7 +9166,7 @@
       <c r="C58" t="s">
         <v>65</v>
       </c>
-      <c r="D58" s="27"/>
+      <c r="D58" s="30"/>
       <c r="E58" s="17" t="s">
         <v>7</v>
       </c>
@@ -9171,7 +9181,7 @@
       <c r="C59" t="s">
         <v>66</v>
       </c>
-      <c r="D59" s="27"/>
+      <c r="D59" s="30"/>
       <c r="E59" s="17" t="s">
         <v>7</v>
       </c>
@@ -9186,7 +9196,7 @@
       <c r="C60" t="s">
         <v>67</v>
       </c>
-      <c r="D60" s="27"/>
+      <c r="D60" s="30"/>
       <c r="E60" s="17" t="s">
         <v>7</v>
       </c>
@@ -9201,7 +9211,7 @@
       <c r="C61" t="s">
         <v>68</v>
       </c>
-      <c r="D61" s="27"/>
+      <c r="D61" s="30"/>
       <c r="E61" s="17" t="s">
         <v>7</v>
       </c>
@@ -9216,7 +9226,7 @@
       <c r="C62" t="s">
         <v>69</v>
       </c>
-      <c r="D62" s="27"/>
+      <c r="D62" s="30"/>
       <c r="E62" s="17" t="s">
         <v>7</v>
       </c>
@@ -9231,7 +9241,7 @@
       <c r="C63" t="s">
         <v>70</v>
       </c>
-      <c r="D63" s="27"/>
+      <c r="D63" s="30"/>
       <c r="E63" s="17" t="s">
         <v>7</v>
       </c>
@@ -9246,7 +9256,7 @@
       <c r="C64" t="s">
         <v>71</v>
       </c>
-      <c r="D64" s="27"/>
+      <c r="D64" s="30"/>
       <c r="E64" s="17" t="s">
         <v>7</v>
       </c>
@@ -9261,7 +9271,7 @@
       <c r="C65" t="s">
         <v>72</v>
       </c>
-      <c r="D65" s="27"/>
+      <c r="D65" s="30"/>
       <c r="E65" s="17" t="s">
         <v>7</v>
       </c>
@@ -9276,7 +9286,7 @@
       <c r="C66" t="s">
         <v>73</v>
       </c>
-      <c r="D66" s="27"/>
+      <c r="D66" s="30"/>
       <c r="E66" s="17" t="s">
         <v>7</v>
       </c>
@@ -9291,7 +9301,7 @@
       <c r="C67" t="s">
         <v>74</v>
       </c>
-      <c r="D67" s="27"/>
+      <c r="D67" s="30"/>
       <c r="E67" s="17" t="s">
         <v>7</v>
       </c>
@@ -9305,15 +9315,15 @@
       <c r="C68" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D68" s="28" t="s">
+      <c r="D68" s="31" t="s">
         <v>293</v>
       </c>
       <c r="E68" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
       <c r="I68" s="16" t="s">
         <v>6</v>
       </c>
@@ -9324,13 +9334,13 @@
       <c r="C69" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D69" s="28"/>
+      <c r="D69" s="31"/>
       <c r="E69" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
       <c r="I69" s="16" t="s">
         <v>6</v>
       </c>
@@ -9341,13 +9351,13 @@
       <c r="C70" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D70" s="28"/>
+      <c r="D70" s="31"/>
       <c r="E70" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="30"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
       <c r="I70" s="16" t="s">
         <v>6</v>
       </c>
@@ -9358,13 +9368,13 @@
       <c r="C71" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D71" s="28"/>
+      <c r="D71" s="31"/>
       <c r="E71" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="30"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
       <c r="I71" s="16" t="s">
         <v>6</v>
       </c>
@@ -9375,13 +9385,13 @@
       <c r="C72" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D72" s="28"/>
+      <c r="D72" s="31"/>
       <c r="E72" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F72" s="30"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="30"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
       <c r="I72" s="16" t="s">
         <v>6</v>
       </c>
@@ -9392,13 +9402,13 @@
       <c r="C73" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D73" s="28"/>
+      <c r="D73" s="31"/>
       <c r="E73" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="30"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
       <c r="I73" s="16" t="s">
         <v>6</v>
       </c>
@@ -9409,13 +9419,13 @@
       <c r="C74" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D74" s="28"/>
+      <c r="D74" s="31"/>
       <c r="E74" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F74" s="30"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
       <c r="I74" s="16" t="s">
         <v>6</v>
       </c>
@@ -9426,13 +9436,13 @@
       <c r="C75" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D75" s="28"/>
+      <c r="D75" s="31"/>
       <c r="E75" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F75" s="30"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="30"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
       <c r="I75" s="16" t="s">
         <v>6</v>
       </c>
@@ -9443,13 +9453,13 @@
       <c r="C76" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D76" s="28"/>
+      <c r="D76" s="31"/>
       <c r="E76" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F76" s="30"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="30"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
       <c r="I76" s="16" t="s">
         <v>6</v>
       </c>
@@ -9460,13 +9470,13 @@
       <c r="C77" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D77" s="28"/>
+      <c r="D77" s="31"/>
       <c r="E77" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F77" s="30"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="30"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
       <c r="I77" s="16" t="s">
         <v>6</v>
       </c>
@@ -9477,13 +9487,13 @@
       <c r="C78" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D78" s="28"/>
+      <c r="D78" s="31"/>
       <c r="E78" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F78" s="30"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="30"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
       <c r="I78" s="16" t="s">
         <v>6</v>
       </c>
@@ -9494,13 +9504,13 @@
       <c r="C79" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D79" s="28"/>
+      <c r="D79" s="31"/>
       <c r="E79" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F79" s="30"/>
-      <c r="G79" s="30"/>
-      <c r="H79" s="30"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
       <c r="I79" s="16" t="s">
         <v>6</v>
       </c>
@@ -9511,13 +9521,13 @@
       <c r="C80" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D80" s="28"/>
+      <c r="D80" s="31"/>
       <c r="E80" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F80" s="30"/>
-      <c r="G80" s="30"/>
-      <c r="H80" s="30"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
       <c r="I80" s="16" t="s">
         <v>6</v>
       </c>
@@ -9528,13 +9538,13 @@
       <c r="C81" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D81" s="28"/>
+      <c r="D81" s="31"/>
       <c r="E81" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F81" s="30"/>
-      <c r="G81" s="30"/>
-      <c r="H81" s="30"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
       <c r="I81" s="16" t="s">
         <v>6</v>
       </c>
@@ -9545,13 +9555,13 @@
       <c r="C82" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D82" s="28"/>
+      <c r="D82" s="31"/>
       <c r="E82" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="30"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
       <c r="I82" s="16" t="s">
         <v>6</v>
       </c>
@@ -9562,13 +9572,13 @@
       <c r="C83" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D83" s="28"/>
+      <c r="D83" s="31"/>
       <c r="E83" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F83" s="30"/>
-      <c r="G83" s="30"/>
-      <c r="H83" s="30"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
       <c r="I83" s="16" t="s">
         <v>6</v>
       </c>
@@ -9865,7 +9875,7 @@
       <c r="C100" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D100" s="28" t="s">
+      <c r="D100" s="31" t="s">
         <v>292</v>
       </c>
       <c r="E100" s="17" t="s">
@@ -9882,7 +9892,7 @@
       <c r="C101" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D101" s="28"/>
+      <c r="D101" s="31"/>
       <c r="E101" s="17" t="s">
         <v>91</v>
       </c>
@@ -9897,7 +9907,7 @@
       <c r="C102" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D102" s="28"/>
+      <c r="D102" s="31"/>
       <c r="E102" s="17" t="s">
         <v>91</v>
       </c>
@@ -9912,7 +9922,7 @@
       <c r="C103" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D103" s="28"/>
+      <c r="D103" s="31"/>
       <c r="E103" s="17" t="s">
         <v>91</v>
       </c>
@@ -9924,103 +9934,103 @@
       </c>
     </row>
     <row r="107" spans="2:10">
-      <c r="C107" s="26" t="s">
+      <c r="C107" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="D107" s="26"/>
-      <c r="E107" s="26"/>
-      <c r="F107" s="26"/>
-      <c r="G107" s="26"/>
-      <c r="H107" s="26"/>
-      <c r="I107" s="26"/>
-      <c r="J107" s="26"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="29"/>
     </row>
     <row r="108" spans="2:10">
-      <c r="C108" s="26"/>
-      <c r="D108" s="26"/>
-      <c r="E108" s="26"/>
-      <c r="F108" s="26"/>
-      <c r="G108" s="26"/>
-      <c r="H108" s="26"/>
-      <c r="I108" s="26"/>
-      <c r="J108" s="26"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="29"/>
+      <c r="H108" s="29"/>
+      <c r="I108" s="29"/>
+      <c r="J108" s="29"/>
     </row>
     <row r="109" spans="2:10">
-      <c r="C109" s="26"/>
-      <c r="D109" s="26"/>
-      <c r="E109" s="26"/>
-      <c r="F109" s="26"/>
-      <c r="G109" s="26"/>
-      <c r="H109" s="26"/>
-      <c r="I109" s="26"/>
-      <c r="J109" s="26"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="29"/>
+      <c r="I109" s="29"/>
+      <c r="J109" s="29"/>
     </row>
     <row r="110" spans="2:10">
-      <c r="C110" s="26"/>
-      <c r="D110" s="26"/>
-      <c r="E110" s="26"/>
-      <c r="F110" s="26"/>
-      <c r="G110" s="26"/>
-      <c r="H110" s="26"/>
-      <c r="I110" s="26"/>
-      <c r="J110" s="26"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="29"/>
+      <c r="H110" s="29"/>
+      <c r="I110" s="29"/>
+      <c r="J110" s="29"/>
     </row>
     <row r="111" spans="2:10">
-      <c r="C111" s="26"/>
-      <c r="D111" s="26"/>
-      <c r="E111" s="26"/>
-      <c r="F111" s="26"/>
-      <c r="G111" s="26"/>
-      <c r="H111" s="26"/>
-      <c r="I111" s="26"/>
-      <c r="J111" s="26"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="29"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="29"/>
+      <c r="H111" s="29"/>
+      <c r="I111" s="29"/>
+      <c r="J111" s="29"/>
     </row>
     <row r="112" spans="2:10">
-      <c r="C112" s="26"/>
-      <c r="D112" s="26"/>
-      <c r="E112" s="26"/>
-      <c r="F112" s="26"/>
-      <c r="G112" s="26"/>
-      <c r="H112" s="26"/>
-      <c r="I112" s="26"/>
-      <c r="J112" s="26"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="29"/>
+      <c r="F112" s="29"/>
+      <c r="G112" s="29"/>
+      <c r="H112" s="29"/>
+      <c r="I112" s="29"/>
+      <c r="J112" s="29"/>
     </row>
     <row r="113" spans="1:10">
-      <c r="C113" s="26"/>
-      <c r="D113" s="26"/>
-      <c r="E113" s="26"/>
-      <c r="F113" s="26"/>
-      <c r="G113" s="26"/>
-      <c r="H113" s="26"/>
-      <c r="I113" s="26"/>
-      <c r="J113" s="26"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="29"/>
+      <c r="H113" s="29"/>
+      <c r="I113" s="29"/>
+      <c r="J113" s="29"/>
     </row>
     <row r="114" spans="1:10" s="6" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A114" s="25" t="s">
+      <c r="A114" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="B114" s="25"/>
-      <c r="C114" s="25"/>
-      <c r="D114" s="25"/>
-      <c r="E114" s="25"/>
-      <c r="F114" s="25"/>
-      <c r="G114" s="25"/>
-      <c r="H114" s="25"/>
-      <c r="I114" s="25"/>
-      <c r="J114" s="25"/>
+      <c r="B114" s="28"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="28"/>
+      <c r="E114" s="28"/>
+      <c r="F114" s="28"/>
+      <c r="G114" s="28"/>
+      <c r="H114" s="28"/>
+      <c r="I114" s="28"/>
+      <c r="J114" s="28"/>
     </row>
     <row r="115" spans="1:10">
-      <c r="A115" s="24" t="s">
+      <c r="A115" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B115" s="24"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="24"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="24"/>
-      <c r="G115" s="24"/>
-      <c r="H115" s="24"/>
-      <c r="I115" s="24"/>
+      <c r="B115" s="27"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="27"/>
+      <c r="F115" s="27"/>
+      <c r="G115" s="27"/>
+      <c r="H115" s="27"/>
+      <c r="I115" s="27"/>
       <c r="J115" s="9"/>
     </row>
     <row r="116" spans="1:10" s="17" customFormat="1">
@@ -10051,9 +10061,9 @@
       <c r="E117" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="F117" s="31"/>
-      <c r="G117" s="31"/>
-      <c r="H117" s="31"/>
+      <c r="F117" s="26"/>
+      <c r="G117" s="26"/>
+      <c r="H117" s="26"/>
       <c r="I117" s="22" t="s">
         <v>378</v>
       </c>
@@ -10939,7 +10949,7 @@
                     this.Exp_Cao1ACapMin.InitItem();</v>
       </c>
       <c r="H180" s="18" t="str">
-        <f t="shared" ref="H180:H243" si="2">CONCATENATE("if (this.",B180," == null)
+        <f t="shared" ref="H180:H233" si="2">CONCATENATE("if (this.",B180," == null)
                 ",B180," = new MyItemValue(OPCItemTitle + @",B180,"@);")</f>
         <v>if (this.Exp_Cao1ACapMin == null)
                 Exp_Cao1ACapMin = new MyItemValue(OPCItemTitle + @Exp_Cao1ACapMin@);</v>
@@ -12420,7 +12430,7 @@
       <c r="C235" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D235" s="28" t="s">
+      <c r="D235" s="31" t="s">
         <v>295</v>
       </c>
       <c r="E235" s="17" t="s">
@@ -12434,7 +12444,7 @@
       <c r="C236" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="D236" s="28"/>
+      <c r="D236" s="31"/>
       <c r="E236" s="17" t="s">
         <v>91</v>
       </c>
@@ -12446,7 +12456,7 @@
       <c r="C237" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="D237" s="28"/>
+      <c r="D237" s="31"/>
       <c r="E237" s="17" t="s">
         <v>91</v>
       </c>
@@ -12458,7 +12468,7 @@
       <c r="C238" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="D238" s="28"/>
+      <c r="D238" s="31"/>
       <c r="E238" s="17" t="s">
         <v>91</v>
       </c>
@@ -12470,7 +12480,7 @@
       <c r="C239" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="D239" s="28"/>
+      <c r="D239" s="31"/>
       <c r="E239" s="17" t="s">
         <v>91</v>
       </c>
@@ -12482,7 +12492,7 @@
       <c r="C240" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="D240" s="28"/>
+      <c r="D240" s="31"/>
       <c r="E240" s="17" t="s">
         <v>91</v>
       </c>
@@ -12494,7 +12504,7 @@
       <c r="C241" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="D241" s="28"/>
+      <c r="D241" s="31"/>
       <c r="E241" s="17" t="s">
         <v>91</v>
       </c>
@@ -12506,7 +12516,7 @@
       <c r="C242" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="D242" s="28"/>
+      <c r="D242" s="31"/>
       <c r="E242" s="17" t="s">
         <v>91</v>
       </c>
@@ -12518,7 +12528,7 @@
       <c r="C243" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="D243" s="28"/>
+      <c r="D243" s="31"/>
       <c r="E243" s="17" t="s">
         <v>91</v>
       </c>
@@ -12530,7 +12540,7 @@
       <c r="C244" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="D244" s="28"/>
+      <c r="D244" s="31"/>
       <c r="E244" s="17" t="s">
         <v>91</v>
       </c>
@@ -12542,7 +12552,7 @@
       <c r="C245" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="D245" s="28"/>
+      <c r="D245" s="31"/>
       <c r="E245" s="17" t="s">
         <v>91</v>
       </c>
@@ -12554,7 +12564,7 @@
       <c r="C246" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="D246" s="28"/>
+      <c r="D246" s="31"/>
       <c r="E246" s="17" t="s">
         <v>91</v>
       </c>
@@ -12566,7 +12576,7 @@
       <c r="C247" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="D247" s="28"/>
+      <c r="D247" s="31"/>
       <c r="E247" s="17" t="s">
         <v>91</v>
       </c>
@@ -12578,7 +12588,7 @@
       <c r="C248" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="D248" s="28"/>
+      <c r="D248" s="31"/>
       <c r="E248" s="17" t="s">
         <v>91</v>
       </c>
@@ -12590,7 +12600,7 @@
       <c r="C249" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="D249" s="28"/>
+      <c r="D249" s="31"/>
       <c r="E249" s="17" t="s">
         <v>91</v>
       </c>
@@ -12602,7 +12612,7 @@
       <c r="C250" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="D250" s="28"/>
+      <c r="D250" s="31"/>
       <c r="E250" s="17" t="s">
         <v>91</v>
       </c>
@@ -12614,7 +12624,7 @@
       <c r="C251" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="D251" s="28"/>
+      <c r="D251" s="31"/>
       <c r="E251" s="17" t="s">
         <v>91</v>
       </c>
@@ -12626,7 +12636,7 @@
       <c r="C252" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="D252" s="28"/>
+      <c r="D252" s="31"/>
       <c r="E252" s="17" t="s">
         <v>91</v>
       </c>
@@ -12645,7 +12655,7 @@
       <c r="C254" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="D254" s="29" t="s">
+      <c r="D254" s="32" t="s">
         <v>502</v>
       </c>
       <c r="E254" s="17" t="s">
@@ -12662,7 +12672,7 @@
                     this.Exp_Yc1.InitItem();</v>
       </c>
       <c r="H254" s="18" t="str">
-        <f t="shared" ref="H244:H273" si="5">CONCATENATE("if (this.",B254," == null)
+        <f t="shared" ref="H254:H273" si="5">CONCATENATE("if (this.",B254," == null)
                 ",B254," = new MyItemValue(OPCItemTitle + @",B254,"@);")</f>
         <v>if (this.Exp_Yc1 == null)
                 Exp_Yc1 = new MyItemValue(OPCItemTitle + @Exp_Yc1@);</v>
@@ -12678,7 +12688,7 @@
       <c r="C255" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="D255" s="29"/>
+      <c r="D255" s="32"/>
       <c r="E255" s="17" t="s">
         <v>7</v>
       </c>
@@ -12707,7 +12717,7 @@
       <c r="C256" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="D256" s="29"/>
+      <c r="D256" s="32"/>
       <c r="E256" s="17" t="s">
         <v>7</v>
       </c>
@@ -12736,7 +12746,7 @@
       <c r="C257" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="D257" s="29"/>
+      <c r="D257" s="32"/>
       <c r="E257" s="17" t="s">
         <v>7</v>
       </c>
@@ -12765,7 +12775,7 @@
       <c r="C258" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="D258" s="29"/>
+      <c r="D258" s="32"/>
       <c r="E258" s="17" t="s">
         <v>7</v>
       </c>
@@ -12794,7 +12804,7 @@
       <c r="C259" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="D259" s="29"/>
+      <c r="D259" s="32"/>
       <c r="E259" s="17" t="s">
         <v>7</v>
       </c>
@@ -12823,7 +12833,7 @@
       <c r="C260" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="D260" s="29"/>
+      <c r="D260" s="32"/>
       <c r="E260" s="17" t="s">
         <v>7</v>
       </c>
@@ -12852,7 +12862,7 @@
       <c r="C261" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="D261" s="29"/>
+      <c r="D261" s="32"/>
       <c r="E261" s="17" t="s">
         <v>7</v>
       </c>
@@ -12881,7 +12891,7 @@
       <c r="C262" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="D262" s="29"/>
+      <c r="D262" s="32"/>
       <c r="E262" s="17" t="s">
         <v>7</v>
       </c>
@@ -12910,7 +12920,7 @@
       <c r="C263" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="D263" s="29"/>
+      <c r="D263" s="32"/>
       <c r="E263" s="17" t="s">
         <v>7</v>
       </c>
@@ -12939,7 +12949,7 @@
       <c r="C264" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="D264" s="29"/>
+      <c r="D264" s="32"/>
       <c r="E264" s="17" t="s">
         <v>7</v>
       </c>
@@ -12968,7 +12978,7 @@
       <c r="C265" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="D265" s="29"/>
+      <c r="D265" s="32"/>
       <c r="E265" s="17" t="s">
         <v>7</v>
       </c>
@@ -12997,7 +13007,7 @@
       <c r="C266" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="D266" s="29"/>
+      <c r="D266" s="32"/>
       <c r="E266" s="17" t="s">
         <v>7</v>
       </c>
@@ -13026,7 +13036,7 @@
       <c r="C267" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="D267" s="29"/>
+      <c r="D267" s="32"/>
       <c r="E267" s="17" t="s">
         <v>7</v>
       </c>
@@ -13055,7 +13065,7 @@
       <c r="C268" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="D268" s="29"/>
+      <c r="D268" s="32"/>
       <c r="E268" s="17" t="s">
         <v>7</v>
       </c>
@@ -13084,7 +13094,7 @@
       <c r="C269" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="D269" s="29"/>
+      <c r="D269" s="32"/>
       <c r="E269" s="17" t="s">
         <v>7</v>
       </c>
@@ -13113,7 +13123,7 @@
       <c r="C270" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="D270" s="29"/>
+      <c r="D270" s="32"/>
       <c r="E270" s="17" t="s">
         <v>7</v>
       </c>
@@ -13143,7 +13153,7 @@
       <c r="C271" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="D271" s="29"/>
+      <c r="D271" s="32"/>
       <c r="E271" s="17" t="s">
         <v>7</v>
       </c>
@@ -13172,7 +13182,7 @@
       <c r="C272" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="D272" s="29"/>
+      <c r="D272" s="32"/>
       <c r="E272" s="17" t="s">
         <v>7</v>
       </c>
@@ -13201,7 +13211,7 @@
       <c r="C273" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="D273" s="29"/>
+      <c r="D273" s="32"/>
       <c r="E273" s="17" t="s">
         <v>7</v>
       </c>
@@ -13228,150 +13238,150 @@
       <c r="D274" s="10"/>
     </row>
     <row r="275" spans="2:9">
-      <c r="C275" s="27" t="s">
+      <c r="C275" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="D275" s="27"/>
-      <c r="E275" s="27"/>
-      <c r="F275" s="27"/>
-      <c r="G275" s="27"/>
-      <c r="H275" s="27"/>
-      <c r="I275" s="27"/>
+      <c r="D275" s="30"/>
+      <c r="E275" s="30"/>
+      <c r="F275" s="30"/>
+      <c r="G275" s="30"/>
+      <c r="H275" s="30"/>
+      <c r="I275" s="30"/>
     </row>
     <row r="276" spans="2:9">
-      <c r="C276" s="27"/>
-      <c r="D276" s="27"/>
-      <c r="E276" s="27"/>
-      <c r="F276" s="27"/>
-      <c r="G276" s="27"/>
-      <c r="H276" s="27"/>
-      <c r="I276" s="27"/>
+      <c r="C276" s="30"/>
+      <c r="D276" s="30"/>
+      <c r="E276" s="30"/>
+      <c r="F276" s="30"/>
+      <c r="G276" s="30"/>
+      <c r="H276" s="30"/>
+      <c r="I276" s="30"/>
     </row>
     <row r="277" spans="2:9">
-      <c r="C277" s="27"/>
-      <c r="D277" s="27"/>
-      <c r="E277" s="27"/>
-      <c r="F277" s="27"/>
-      <c r="G277" s="27"/>
-      <c r="H277" s="27"/>
-      <c r="I277" s="27"/>
+      <c r="C277" s="30"/>
+      <c r="D277" s="30"/>
+      <c r="E277" s="30"/>
+      <c r="F277" s="30"/>
+      <c r="G277" s="30"/>
+      <c r="H277" s="30"/>
+      <c r="I277" s="30"/>
     </row>
     <row r="278" spans="2:9">
-      <c r="C278" s="27"/>
-      <c r="D278" s="27"/>
-      <c r="E278" s="27"/>
-      <c r="F278" s="27"/>
-      <c r="G278" s="27"/>
-      <c r="H278" s="27"/>
-      <c r="I278" s="27"/>
+      <c r="C278" s="30"/>
+      <c r="D278" s="30"/>
+      <c r="E278" s="30"/>
+      <c r="F278" s="30"/>
+      <c r="G278" s="30"/>
+      <c r="H278" s="30"/>
+      <c r="I278" s="30"/>
     </row>
     <row r="279" spans="2:9">
-      <c r="C279" s="27"/>
-      <c r="D279" s="27"/>
-      <c r="E279" s="27"/>
-      <c r="F279" s="27"/>
-      <c r="G279" s="27"/>
-      <c r="H279" s="27"/>
-      <c r="I279" s="27"/>
+      <c r="C279" s="30"/>
+      <c r="D279" s="30"/>
+      <c r="E279" s="30"/>
+      <c r="F279" s="30"/>
+      <c r="G279" s="30"/>
+      <c r="H279" s="30"/>
+      <c r="I279" s="30"/>
     </row>
     <row r="280" spans="2:9">
-      <c r="C280" s="27"/>
-      <c r="D280" s="27"/>
-      <c r="E280" s="27"/>
-      <c r="F280" s="27"/>
-      <c r="G280" s="27"/>
-      <c r="H280" s="27"/>
-      <c r="I280" s="27"/>
+      <c r="C280" s="30"/>
+      <c r="D280" s="30"/>
+      <c r="E280" s="30"/>
+      <c r="F280" s="30"/>
+      <c r="G280" s="30"/>
+      <c r="H280" s="30"/>
+      <c r="I280" s="30"/>
     </row>
     <row r="281" spans="2:9">
-      <c r="C281" s="27"/>
-      <c r="D281" s="27"/>
-      <c r="E281" s="27"/>
-      <c r="F281" s="27"/>
-      <c r="G281" s="27"/>
-      <c r="H281" s="27"/>
-      <c r="I281" s="27"/>
+      <c r="C281" s="30"/>
+      <c r="D281" s="30"/>
+      <c r="E281" s="30"/>
+      <c r="F281" s="30"/>
+      <c r="G281" s="30"/>
+      <c r="H281" s="30"/>
+      <c r="I281" s="30"/>
     </row>
     <row r="282" spans="2:9">
-      <c r="C282" s="27"/>
-      <c r="D282" s="27"/>
-      <c r="E282" s="27"/>
-      <c r="F282" s="27"/>
-      <c r="G282" s="27"/>
-      <c r="H282" s="27"/>
-      <c r="I282" s="27"/>
+      <c r="C282" s="30"/>
+      <c r="D282" s="30"/>
+      <c r="E282" s="30"/>
+      <c r="F282" s="30"/>
+      <c r="G282" s="30"/>
+      <c r="H282" s="30"/>
+      <c r="I282" s="30"/>
     </row>
     <row r="283" spans="2:9">
-      <c r="C283" s="27"/>
-      <c r="D283" s="27"/>
-      <c r="E283" s="27"/>
-      <c r="F283" s="27"/>
-      <c r="G283" s="27"/>
-      <c r="H283" s="27"/>
-      <c r="I283" s="27"/>
+      <c r="C283" s="30"/>
+      <c r="D283" s="30"/>
+      <c r="E283" s="30"/>
+      <c r="F283" s="30"/>
+      <c r="G283" s="30"/>
+      <c r="H283" s="30"/>
+      <c r="I283" s="30"/>
     </row>
     <row r="284" spans="2:9">
-      <c r="C284" s="27"/>
-      <c r="D284" s="27"/>
-      <c r="E284" s="27"/>
-      <c r="F284" s="27"/>
-      <c r="G284" s="27"/>
-      <c r="H284" s="27"/>
-      <c r="I284" s="27"/>
+      <c r="C284" s="30"/>
+      <c r="D284" s="30"/>
+      <c r="E284" s="30"/>
+      <c r="F284" s="30"/>
+      <c r="G284" s="30"/>
+      <c r="H284" s="30"/>
+      <c r="I284" s="30"/>
     </row>
     <row r="285" spans="2:9">
-      <c r="C285" s="27"/>
-      <c r="D285" s="27"/>
-      <c r="E285" s="27"/>
-      <c r="F285" s="27"/>
-      <c r="G285" s="27"/>
-      <c r="H285" s="27"/>
-      <c r="I285" s="27"/>
+      <c r="C285" s="30"/>
+      <c r="D285" s="30"/>
+      <c r="E285" s="30"/>
+      <c r="F285" s="30"/>
+      <c r="G285" s="30"/>
+      <c r="H285" s="30"/>
+      <c r="I285" s="30"/>
     </row>
     <row r="286" spans="2:9">
-      <c r="C286" s="27"/>
-      <c r="D286" s="27"/>
-      <c r="E286" s="27"/>
-      <c r="F286" s="27"/>
-      <c r="G286" s="27"/>
-      <c r="H286" s="27"/>
-      <c r="I286" s="27"/>
+      <c r="C286" s="30"/>
+      <c r="D286" s="30"/>
+      <c r="E286" s="30"/>
+      <c r="F286" s="30"/>
+      <c r="G286" s="30"/>
+      <c r="H286" s="30"/>
+      <c r="I286" s="30"/>
     </row>
     <row r="287" spans="2:9">
-      <c r="C287" s="27"/>
-      <c r="D287" s="27"/>
-      <c r="E287" s="27"/>
-      <c r="F287" s="27"/>
-      <c r="G287" s="27"/>
-      <c r="H287" s="27"/>
-      <c r="I287" s="27"/>
+      <c r="C287" s="30"/>
+      <c r="D287" s="30"/>
+      <c r="E287" s="30"/>
+      <c r="F287" s="30"/>
+      <c r="G287" s="30"/>
+      <c r="H287" s="30"/>
+      <c r="I287" s="30"/>
     </row>
     <row r="288" spans="2:9">
-      <c r="C288" s="27"/>
-      <c r="D288" s="27"/>
-      <c r="E288" s="27"/>
-      <c r="F288" s="27"/>
-      <c r="G288" s="27"/>
-      <c r="H288" s="27"/>
-      <c r="I288" s="27"/>
+      <c r="C288" s="30"/>
+      <c r="D288" s="30"/>
+      <c r="E288" s="30"/>
+      <c r="F288" s="30"/>
+      <c r="G288" s="30"/>
+      <c r="H288" s="30"/>
+      <c r="I288" s="30"/>
     </row>
     <row r="289" spans="3:9">
-      <c r="C289" s="27"/>
-      <c r="D289" s="27"/>
-      <c r="E289" s="27"/>
-      <c r="F289" s="27"/>
-      <c r="G289" s="27"/>
-      <c r="H289" s="27"/>
-      <c r="I289" s="27"/>
+      <c r="C289" s="30"/>
+      <c r="D289" s="30"/>
+      <c r="E289" s="30"/>
+      <c r="F289" s="30"/>
+      <c r="G289" s="30"/>
+      <c r="H289" s="30"/>
+      <c r="I289" s="30"/>
     </row>
     <row r="290" spans="3:9">
-      <c r="C290" s="27"/>
-      <c r="D290" s="27"/>
-      <c r="E290" s="27"/>
-      <c r="F290" s="27"/>
-      <c r="G290" s="27"/>
-      <c r="H290" s="27"/>
-      <c r="I290" s="27"/>
+      <c r="C290" s="30"/>
+      <c r="D290" s="30"/>
+      <c r="E290" s="30"/>
+      <c r="F290" s="30"/>
+      <c r="G290" s="30"/>
+      <c r="H290" s="30"/>
+      <c r="I290" s="30"/>
     </row>
     <row r="291" spans="3:9">
       <c r="C291" s="10"/>
@@ -13511,7 +13521,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="26" t="s">
         <v>504</v>
       </c>
       <c r="C1" t="s">
@@ -13522,7 +13532,7 @@
       </c>
     </row>
     <row r="2" spans="2:5">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="26" t="s">
         <v>505</v>
       </c>
       <c r="C2" t="s">
@@ -13533,7 +13543,7 @@
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="26" t="s">
         <v>506</v>
       </c>
       <c r="C3" t="s">
@@ -13544,7 +13554,7 @@
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="26" t="s">
         <v>507</v>
       </c>
       <c r="C4" t="s">
@@ -13555,7 +13565,7 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="26" t="s">
         <v>508</v>
       </c>
       <c r="C5" t="s">
@@ -13566,7 +13576,7 @@
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="26" t="s">
         <v>509</v>
       </c>
       <c r="C6" t="s">
@@ -13577,7 +13587,7 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="26" t="s">
         <v>510</v>
       </c>
       <c r="C7" t="s">
@@ -13588,7 +13598,7 @@
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="26" t="s">
         <v>511</v>
       </c>
       <c r="C8" t="s">
@@ -13599,7 +13609,7 @@
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="26" t="s">
         <v>512</v>
       </c>
       <c r="C9" t="s">
@@ -13610,7 +13620,7 @@
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="26" t="s">
         <v>513</v>
       </c>
       <c r="C10" t="s">
@@ -13621,7 +13631,7 @@
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="26" t="s">
         <v>514</v>
       </c>
       <c r="C11" t="s">
@@ -13632,7 +13642,7 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="26" t="s">
         <v>515</v>
       </c>
       <c r="C12" t="s">
@@ -13643,7 +13653,7 @@
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="26" t="s">
         <v>516</v>
       </c>
       <c r="C13" t="s">
@@ -13654,7 +13664,7 @@
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="26" t="s">
         <v>517</v>
       </c>
       <c r="C14" t="s">
@@ -13665,7 +13675,7 @@
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="26" t="s">
         <v>518</v>
       </c>
       <c r="C15" t="s">
@@ -13676,7 +13686,7 @@
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="26" t="s">
         <v>519</v>
       </c>
       <c r="C16" t="s">
@@ -13687,7 +13697,7 @@
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="26" t="s">
         <v>520</v>
       </c>
       <c r="C17" t="s">
@@ -13698,7 +13708,7 @@
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="26" t="s">
         <v>521</v>
       </c>
       <c r="C18" t="s">
@@ -13709,7 +13719,7 @@
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="26" t="s">
         <v>522</v>
       </c>
       <c r="C19" t="s">
@@ -13720,7 +13730,7 @@
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="26" t="s">
         <v>523</v>
       </c>
       <c r="C20" t="s">
@@ -13731,7 +13741,7 @@
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="26" t="s">
         <v>524</v>
       </c>
       <c r="C21" t="s">
@@ -13742,7 +13752,7 @@
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="26" t="s">
         <v>525</v>
       </c>
       <c r="C22" t="s">
@@ -13753,7 +13763,7 @@
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="26" t="s">
         <v>526</v>
       </c>
       <c r="C23" t="s">
@@ -13764,7 +13774,7 @@
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="26" t="s">
         <v>527</v>
       </c>
       <c r="C24" t="s">
@@ -13775,7 +13785,7 @@
       </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="26" t="s">
         <v>528</v>
       </c>
       <c r="C25" t="s">
@@ -13786,7 +13796,7 @@
       </c>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="26" t="s">
         <v>529</v>
       </c>
       <c r="C26" t="s">
@@ -13794,7 +13804,7 @@
       </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="26" t="s">
         <v>530</v>
       </c>
       <c r="C27" t="s">
@@ -13802,7 +13812,7 @@
       </c>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="26" t="s">
         <v>531</v>
       </c>
       <c r="C28" t="s">
@@ -13810,7 +13820,7 @@
       </c>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="26" t="s">
         <v>532</v>
       </c>
       <c r="C29" t="s">
@@ -13818,7 +13828,7 @@
       </c>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="26" t="s">
         <v>533</v>
       </c>
       <c r="C30" t="s">
@@ -13826,7 +13836,7 @@
       </c>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="26" t="s">
         <v>534</v>
       </c>
       <c r="C31" t="s">
@@ -13834,7 +13844,7 @@
       </c>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="26" t="s">
         <v>535</v>
       </c>
       <c r="C32" t="s">
@@ -13842,7 +13852,7 @@
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="26" t="s">
         <v>536</v>
       </c>
       <c r="C33" t="s">
@@ -13850,7 +13860,7 @@
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="26" t="s">
         <v>537</v>
       </c>
       <c r="C34" t="s">
@@ -13858,7 +13868,7 @@
       </c>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="26" t="s">
         <v>538</v>
       </c>
       <c r="C35" t="s">
@@ -13866,7 +13876,7 @@
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="26" t="s">
         <v>539</v>
       </c>
       <c r="C36" t="s">
@@ -13874,7 +13884,7 @@
       </c>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="26" t="s">
         <v>540</v>
       </c>
       <c r="C37" t="s">
@@ -13882,7 +13892,7 @@
       </c>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="26" t="s">
         <v>541</v>
       </c>
       <c r="C38" t="s">
@@ -13890,7 +13900,7 @@
       </c>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="26" t="s">
         <v>542</v>
       </c>
       <c r="C39" t="s">
@@ -13898,7 +13908,7 @@
       </c>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="26" t="s">
         <v>543</v>
       </c>
       <c r="C40" t="s">
@@ -13906,7 +13916,7 @@
       </c>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="26" t="s">
         <v>544</v>
       </c>
       <c r="C41" t="s">
@@ -13914,7 +13924,7 @@
       </c>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="26" t="s">
         <v>545</v>
       </c>
       <c r="C42" t="s">
@@ -13922,7 +13932,7 @@
       </c>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="26" t="s">
         <v>546</v>
       </c>
       <c r="C43" t="s">
@@ -13930,7 +13940,7 @@
       </c>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="26" t="s">
         <v>547</v>
       </c>
       <c r="C44" t="s">
@@ -13938,7 +13948,7 @@
       </c>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="26" t="s">
         <v>548</v>
       </c>
       <c r="C45" t="s">
@@ -13946,7 +13956,7 @@
       </c>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="26" t="s">
         <v>549</v>
       </c>
       <c r="C46" t="s">
@@ -13954,7 +13964,7 @@
       </c>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="26" t="s">
         <v>550</v>
       </c>
       <c r="C47" t="s">
@@ -13962,7 +13972,7 @@
       </c>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="26" t="s">
         <v>551</v>
       </c>
       <c r="C48" t="s">
@@ -13970,7 +13980,7 @@
       </c>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="26" t="s">
         <v>552</v>
       </c>
       <c r="C49" t="s">
@@ -13978,7 +13988,7 @@
       </c>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="26" t="s">
         <v>553</v>
       </c>
       <c r="C50" t="s">
@@ -13986,7 +13996,7 @@
       </c>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="26" t="s">
         <v>554</v>
       </c>
       <c r="C51" t="s">
@@ -13994,7 +14004,7 @@
       </c>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="26" t="s">
         <v>555</v>
       </c>
       <c r="C52" t="s">
@@ -14002,7 +14012,7 @@
       </c>
     </row>
     <row r="53" spans="2:3">
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="26" t="s">
         <v>556</v>
       </c>
       <c r="C53" t="s">
@@ -14010,7 +14020,7 @@
       </c>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="26" t="s">
         <v>557</v>
       </c>
       <c r="C54" t="s">
@@ -14018,7 +14028,7 @@
       </c>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="26" t="s">
         <v>558</v>
       </c>
       <c r="C55" t="s">
@@ -14026,7 +14036,7 @@
       </c>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="26" t="s">
         <v>559</v>
       </c>
       <c r="C56" t="s">
@@ -14034,7 +14044,7 @@
       </c>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="26" t="s">
         <v>560</v>
       </c>
       <c r="C57" t="s">
@@ -14042,7 +14052,7 @@
       </c>
     </row>
     <row r="58" spans="2:3">
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="26" t="s">
         <v>561</v>
       </c>
       <c r="C58" t="s">
@@ -14050,7 +14060,7 @@
       </c>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="26" t="s">
         <v>562</v>
       </c>
       <c r="C59" t="s">
@@ -14058,7 +14068,7 @@
       </c>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="26" t="s">
         <v>563</v>
       </c>
       <c r="C60" t="s">
@@ -14066,7 +14076,7 @@
       </c>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="26" t="s">
         <v>564</v>
       </c>
       <c r="C61" t="s">
@@ -14074,7 +14084,7 @@
       </c>
     </row>
     <row r="62" spans="2:3">
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="26" t="s">
         <v>565</v>
       </c>
       <c r="C62" t="s">
@@ -14082,7 +14092,7 @@
       </c>
     </row>
     <row r="63" spans="2:3">
-      <c r="B63" s="31" t="s">
+      <c r="B63" s="26" t="s">
         <v>566</v>
       </c>
       <c r="C63" t="s">
@@ -14090,7 +14100,7 @@
       </c>
     </row>
     <row r="64" spans="2:3">
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="26" t="s">
         <v>567</v>
       </c>
       <c r="C64" t="s">
@@ -14098,7 +14108,7 @@
       </c>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="26" t="s">
         <v>568</v>
       </c>
       <c r="C65" t="s">
@@ -14106,7 +14116,7 @@
       </c>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="26" t="s">
         <v>569</v>
       </c>
       <c r="C66" t="s">
@@ -14114,7 +14124,7 @@
       </c>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="26" t="s">
         <v>570</v>
       </c>
       <c r="C67" t="s">
@@ -14122,7 +14132,7 @@
       </c>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="26" t="s">
         <v>571</v>
       </c>
       <c r="C68" t="s">
@@ -14130,7 +14140,7 @@
       </c>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="31" t="s">
+      <c r="B69" s="26" t="s">
         <v>572</v>
       </c>
       <c r="C69" t="s">
@@ -14138,7 +14148,7 @@
       </c>
     </row>
     <row r="70" spans="2:3">
-      <c r="B70" s="31" t="s">
+      <c r="B70" s="26" t="s">
         <v>573</v>
       </c>
       <c r="C70" t="s">
@@ -14146,7 +14156,7 @@
       </c>
     </row>
     <row r="71" spans="2:3">
-      <c r="B71" s="31" t="s">
+      <c r="B71" s="26" t="s">
         <v>574</v>
       </c>
       <c r="C71" t="s">
@@ -14154,7 +14164,7 @@
       </c>
     </row>
     <row r="72" spans="2:3">
-      <c r="B72" s="31" t="s">
+      <c r="B72" s="26" t="s">
         <v>575</v>
       </c>
       <c r="C72" t="s">
@@ -14162,7 +14172,7 @@
       </c>
     </row>
     <row r="73" spans="2:3">
-      <c r="B73" s="31" t="s">
+      <c r="B73" s="26" t="s">
         <v>576</v>
       </c>
       <c r="C73" t="s">
@@ -14170,7 +14180,7 @@
       </c>
     </row>
     <row r="74" spans="2:3">
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="26" t="s">
         <v>577</v>
       </c>
       <c r="C74" t="s">
@@ -14178,7 +14188,7 @@
       </c>
     </row>
     <row r="75" spans="2:3">
-      <c r="B75" s="31" t="s">
+      <c r="B75" s="26" t="s">
         <v>578</v>
       </c>
       <c r="C75" t="s">
@@ -14186,7 +14196,7 @@
       </c>
     </row>
     <row r="76" spans="2:3">
-      <c r="B76" s="31" t="s">
+      <c r="B76" s="26" t="s">
         <v>579</v>
       </c>
       <c r="C76" t="s">
@@ -14194,7 +14204,7 @@
       </c>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="31" t="s">
+      <c r="B77" s="26" t="s">
         <v>580</v>
       </c>
       <c r="C77" t="s">
@@ -14202,7 +14212,7 @@
       </c>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="31" t="s">
+      <c r="B78" s="26" t="s">
         <v>581</v>
       </c>
       <c r="C78" t="s">
@@ -14210,7 +14220,7 @@
       </c>
     </row>
     <row r="79" spans="2:3">
-      <c r="B79" s="31" t="s">
+      <c r="B79" s="26" t="s">
         <v>582</v>
       </c>
       <c r="C79" t="s">
@@ -14218,7 +14228,7 @@
       </c>
     </row>
     <row r="80" spans="2:3">
-      <c r="B80" s="31" t="s">
+      <c r="B80" s="26" t="s">
         <v>583</v>
       </c>
       <c r="C80" t="s">
@@ -14226,7 +14236,7 @@
       </c>
     </row>
     <row r="81" spans="2:3">
-      <c r="B81" s="31" t="s">
+      <c r="B81" s="26" t="s">
         <v>584</v>
       </c>
       <c r="C81" t="s">
@@ -14234,7 +14244,7 @@
       </c>
     </row>
     <row r="82" spans="2:3">
-      <c r="B82" s="31" t="s">
+      <c r="B82" s="26" t="s">
         <v>585</v>
       </c>
       <c r="C82" t="s">
@@ -14242,7 +14252,7 @@
       </c>
     </row>
     <row r="83" spans="2:3">
-      <c r="B83" s="31" t="s">
+      <c r="B83" s="26" t="s">
         <v>586</v>
       </c>
       <c r="C83" t="s">
@@ -14250,7 +14260,7 @@
       </c>
     </row>
     <row r="84" spans="2:3">
-      <c r="B84" s="31" t="s">
+      <c r="B84" s="26" t="s">
         <v>587</v>
       </c>
       <c r="C84" t="s">
@@ -14258,7 +14268,7 @@
       </c>
     </row>
     <row r="85" spans="2:3">
-      <c r="B85" s="31" t="s">
+      <c r="B85" s="26" t="s">
         <v>588</v>
       </c>
       <c r="C85" t="s">
@@ -14266,7 +14276,7 @@
       </c>
     </row>
     <row r="86" spans="2:3">
-      <c r="B86" s="31" t="s">
+      <c r="B86" s="26" t="s">
         <v>589</v>
       </c>
       <c r="C86" t="s">
@@ -14274,7 +14284,7 @@
       </c>
     </row>
     <row r="87" spans="2:3">
-      <c r="B87" s="31" t="s">
+      <c r="B87" s="26" t="s">
         <v>590</v>
       </c>
       <c r="C87" t="s">
@@ -14282,7 +14292,7 @@
       </c>
     </row>
     <row r="88" spans="2:3">
-      <c r="B88" s="31" t="s">
+      <c r="B88" s="26" t="s">
         <v>591</v>
       </c>
       <c r="C88" t="s">
@@ -14290,7 +14300,7 @@
       </c>
     </row>
     <row r="89" spans="2:3">
-      <c r="B89" s="31" t="s">
+      <c r="B89" s="26" t="s">
         <v>592</v>
       </c>
       <c r="C89" t="s">
@@ -14298,7 +14308,7 @@
       </c>
     </row>
     <row r="90" spans="2:3">
-      <c r="B90" s="31" t="s">
+      <c r="B90" s="26" t="s">
         <v>593</v>
       </c>
       <c r="C90" t="s">
@@ -14306,7 +14316,7 @@
       </c>
     </row>
     <row r="91" spans="2:3">
-      <c r="B91" s="31" t="s">
+      <c r="B91" s="26" t="s">
         <v>594</v>
       </c>
       <c r="C91" t="s">
@@ -14314,7 +14324,7 @@
       </c>
     </row>
     <row r="92" spans="2:3">
-      <c r="B92" s="31" t="s">
+      <c r="B92" s="26" t="s">
         <v>595</v>
       </c>
       <c r="C92" t="s">
@@ -14322,7 +14332,7 @@
       </c>
     </row>
     <row r="93" spans="2:3">
-      <c r="B93" s="31" t="s">
+      <c r="B93" s="26" t="s">
         <v>596</v>
       </c>
       <c r="C93" t="s">
@@ -14330,7 +14340,7 @@
       </c>
     </row>
     <row r="94" spans="2:3">
-      <c r="B94" s="31" t="s">
+      <c r="B94" s="26" t="s">
         <v>597</v>
       </c>
       <c r="C94" t="s">
@@ -14338,7 +14348,7 @@
       </c>
     </row>
     <row r="95" spans="2:3">
-      <c r="B95" s="31" t="s">
+      <c r="B95" s="26" t="s">
         <v>598</v>
       </c>
       <c r="C95" t="s">
@@ -14346,7 +14356,7 @@
       </c>
     </row>
     <row r="96" spans="2:3">
-      <c r="B96" s="31" t="s">
+      <c r="B96" s="26" t="s">
         <v>599</v>
       </c>
       <c r="C96" t="s">
@@ -14354,7 +14364,7 @@
       </c>
     </row>
     <row r="97" spans="2:3">
-      <c r="B97" s="31" t="s">
+      <c r="B97" s="26" t="s">
         <v>600</v>
       </c>
       <c r="C97" t="s">
@@ -14362,7 +14372,7 @@
       </c>
     </row>
     <row r="98" spans="2:3">
-      <c r="B98" s="31" t="s">
+      <c r="B98" s="26" t="s">
         <v>601</v>
       </c>
       <c r="C98" t="s">
@@ -14370,7 +14380,7 @@
       </c>
     </row>
     <row r="99" spans="2:3">
-      <c r="B99" s="31" t="s">
+      <c r="B99" s="26" t="s">
         <v>602</v>
       </c>
       <c r="C99" t="s">
@@ -14378,7 +14388,7 @@
       </c>
     </row>
     <row r="100" spans="2:3">
-      <c r="B100" s="31" t="s">
+      <c r="B100" s="26" t="s">
         <v>603</v>
       </c>
       <c r="C100" t="s">
@@ -14386,7 +14396,7 @@
       </c>
     </row>
     <row r="101" spans="2:3">
-      <c r="B101" s="31" t="s">
+      <c r="B101" s="26" t="s">
         <v>604</v>
       </c>
       <c r="C101" t="s">
@@ -14394,7 +14404,7 @@
       </c>
     </row>
     <row r="102" spans="2:3">
-      <c r="B102" s="31" t="s">
+      <c r="B102" s="26" t="s">
         <v>605</v>
       </c>
       <c r="C102" t="s">
@@ -14402,7 +14412,7 @@
       </c>
     </row>
     <row r="103" spans="2:3">
-      <c r="B103" s="31" t="s">
+      <c r="B103" s="26" t="s">
         <v>606</v>
       </c>
       <c r="C103" t="s">
@@ -14410,7 +14420,7 @@
       </c>
     </row>
     <row r="104" spans="2:3">
-      <c r="B104" s="31" t="s">
+      <c r="B104" s="26" t="s">
         <v>607</v>
       </c>
       <c r="C104" t="s">
@@ -14418,7 +14428,7 @@
       </c>
     </row>
     <row r="105" spans="2:3">
-      <c r="B105" s="31" t="s">
+      <c r="B105" s="26" t="s">
         <v>608</v>
       </c>
       <c r="C105" t="s">
@@ -14426,7 +14436,7 @@
       </c>
     </row>
     <row r="106" spans="2:3">
-      <c r="B106" s="31" t="s">
+      <c r="B106" s="26" t="s">
         <v>609</v>
       </c>
       <c r="C106" t="s">
@@ -14434,7 +14444,7 @@
       </c>
     </row>
     <row r="107" spans="2:3">
-      <c r="B107" s="31" t="s">
+      <c r="B107" s="26" t="s">
         <v>610</v>
       </c>
       <c r="C107" t="s">
@@ -14442,7 +14452,7 @@
       </c>
     </row>
     <row r="108" spans="2:3">
-      <c r="B108" s="31" t="s">
+      <c r="B108" s="26" t="s">
         <v>611</v>
       </c>
       <c r="C108" t="s">
@@ -14450,7 +14460,7 @@
       </c>
     </row>
     <row r="109" spans="2:3">
-      <c r="B109" s="31" t="s">
+      <c r="B109" s="26" t="s">
         <v>612</v>
       </c>
       <c r="C109" t="s">
@@ -14458,7 +14468,7 @@
       </c>
     </row>
     <row r="110" spans="2:3">
-      <c r="B110" s="31" t="s">
+      <c r="B110" s="26" t="s">
         <v>613</v>
       </c>
       <c r="C110" t="s">
@@ -14466,7 +14476,7 @@
       </c>
     </row>
     <row r="111" spans="2:3">
-      <c r="B111" s="31" t="s">
+      <c r="B111" s="26" t="s">
         <v>614</v>
       </c>
       <c r="C111" t="s">
@@ -14474,7 +14484,7 @@
       </c>
     </row>
     <row r="112" spans="2:3">
-      <c r="B112" s="31" t="s">
+      <c r="B112" s="26" t="s">
         <v>615</v>
       </c>
       <c r="C112" t="s">
@@ -14482,7 +14492,7 @@
       </c>
     </row>
     <row r="113" spans="2:3">
-      <c r="B113" s="31" t="s">
+      <c r="B113" s="26" t="s">
         <v>616</v>
       </c>
       <c r="C113" t="s">
@@ -14490,7 +14500,7 @@
       </c>
     </row>
     <row r="114" spans="2:3">
-      <c r="B114" s="31" t="s">
+      <c r="B114" s="26" t="s">
         <v>617</v>
       </c>
       <c r="C114" t="s">
@@ -14498,7 +14508,7 @@
       </c>
     </row>
     <row r="115" spans="2:3">
-      <c r="B115" s="31" t="s">
+      <c r="B115" s="26" t="s">
         <v>618</v>
       </c>
       <c r="C115" t="s">
@@ -14506,7 +14516,7 @@
       </c>
     </row>
     <row r="116" spans="2:3">
-      <c r="B116" s="31" t="s">
+      <c r="B116" s="26" t="s">
         <v>619</v>
       </c>
       <c r="C116" t="s">
@@ -14514,7 +14524,7 @@
       </c>
     </row>
     <row r="117" spans="2:3">
-      <c r="B117" s="31" t="s">
+      <c r="B117" s="26" t="s">
         <v>620</v>
       </c>
       <c r="C117" t="s">
@@ -14522,7 +14532,7 @@
       </c>
     </row>
     <row r="118" spans="2:3">
-      <c r="B118" s="31" t="s">
+      <c r="B118" s="26" t="s">
         <v>621</v>
       </c>
       <c r="C118" t="s">
@@ -14530,7 +14540,7 @@
       </c>
     </row>
     <row r="119" spans="2:3">
-      <c r="B119" s="31" t="s">
+      <c r="B119" s="26" t="s">
         <v>622</v>
       </c>
       <c r="C119" t="s">
@@ -14538,7 +14548,7 @@
       </c>
     </row>
     <row r="120" spans="2:3">
-      <c r="B120" s="31" t="s">
+      <c r="B120" s="26" t="s">
         <v>623</v>
       </c>
       <c r="C120" t="s">
@@ -14546,7 +14556,7 @@
       </c>
     </row>
     <row r="121" spans="2:3">
-      <c r="B121" s="31" t="s">
+      <c r="B121" s="26" t="s">
         <v>624</v>
       </c>
       <c r="C121" t="s">
@@ -14554,7 +14564,7 @@
       </c>
     </row>
     <row r="122" spans="2:3">
-      <c r="B122" s="31" t="s">
+      <c r="B122" s="26" t="s">
         <v>625</v>
       </c>
       <c r="C122" t="s">
@@ -14562,7 +14572,7 @@
       </c>
     </row>
     <row r="123" spans="2:3">
-      <c r="B123" s="31" t="s">
+      <c r="B123" s="26" t="s">
         <v>626</v>
       </c>
       <c r="C123" t="s">
@@ -14570,7 +14580,7 @@
       </c>
     </row>
     <row r="124" spans="2:3">
-      <c r="B124" s="31" t="s">
+      <c r="B124" s="26" t="s">
         <v>627</v>
       </c>
       <c r="C124" t="s">
@@ -14578,7 +14588,7 @@
       </c>
     </row>
     <row r="125" spans="2:3">
-      <c r="B125" s="31" t="s">
+      <c r="B125" s="26" t="s">
         <v>628</v>
       </c>
       <c r="C125" t="s">
@@ -14586,7 +14596,7 @@
       </c>
     </row>
     <row r="126" spans="2:3">
-      <c r="B126" s="31" t="s">
+      <c r="B126" s="26" t="s">
         <v>629</v>
       </c>
       <c r="C126" t="s">
@@ -14594,7 +14604,7 @@
       </c>
     </row>
     <row r="127" spans="2:3">
-      <c r="B127" s="31" t="s">
+      <c r="B127" s="26" t="s">
         <v>630</v>
       </c>
       <c r="C127" t="s">
@@ -14602,7 +14612,7 @@
       </c>
     </row>
     <row r="128" spans="2:3">
-      <c r="B128" s="31" t="s">
+      <c r="B128" s="26" t="s">
         <v>631</v>
       </c>
       <c r="C128" t="s">
@@ -14610,7 +14620,7 @@
       </c>
     </row>
     <row r="129" spans="2:3">
-      <c r="B129" s="31" t="s">
+      <c r="B129" s="26" t="s">
         <v>632</v>
       </c>
       <c r="C129" t="s">
@@ -14618,7 +14628,7 @@
       </c>
     </row>
     <row r="130" spans="2:3">
-      <c r="B130" s="31" t="s">
+      <c r="B130" s="26" t="s">
         <v>633</v>
       </c>
       <c r="C130" t="s">
@@ -14626,7 +14636,7 @@
       </c>
     </row>
     <row r="131" spans="2:3">
-      <c r="B131" s="31" t="s">
+      <c r="B131" s="26" t="s">
         <v>634</v>
       </c>
       <c r="C131" t="s">
@@ -14634,7 +14644,7 @@
       </c>
     </row>
     <row r="132" spans="2:3">
-      <c r="B132" s="31" t="s">
+      <c r="B132" s="26" t="s">
         <v>635</v>
       </c>
       <c r="C132" t="s">
@@ -14642,7 +14652,7 @@
       </c>
     </row>
     <row r="133" spans="2:3">
-      <c r="B133" s="31" t="s">
+      <c r="B133" s="26" t="s">
         <v>636</v>
       </c>
       <c r="C133" t="s">
@@ -14650,7 +14660,7 @@
       </c>
     </row>
     <row r="134" spans="2:3">
-      <c r="B134" s="31" t="s">
+      <c r="B134" s="26" t="s">
         <v>637</v>
       </c>
       <c r="C134" t="s">
@@ -14658,7 +14668,7 @@
       </c>
     </row>
     <row r="135" spans="2:3">
-      <c r="B135" s="31" t="s">
+      <c r="B135" s="26" t="s">
         <v>638</v>
       </c>
       <c r="C135" t="s">
@@ -14666,7 +14676,7 @@
       </c>
     </row>
     <row r="136" spans="2:3">
-      <c r="B136" s="31" t="s">
+      <c r="B136" s="26" t="s">
         <v>639</v>
       </c>
       <c r="C136" t="s">
@@ -14674,7 +14684,7 @@
       </c>
     </row>
     <row r="137" spans="2:3">
-      <c r="B137" s="31" t="s">
+      <c r="B137" s="26" t="s">
         <v>640</v>
       </c>
       <c r="C137" t="s">
@@ -14682,7 +14692,7 @@
       </c>
     </row>
     <row r="138" spans="2:3">
-      <c r="B138" s="31" t="s">
+      <c r="B138" s="26" t="s">
         <v>641</v>
       </c>
       <c r="C138" t="s">
@@ -14690,7 +14700,7 @@
       </c>
     </row>
     <row r="139" spans="2:3">
-      <c r="B139" s="31" t="s">
+      <c r="B139" s="26" t="s">
         <v>642</v>
       </c>
       <c r="C139" t="s">
@@ -14698,7 +14708,7 @@
       </c>
     </row>
     <row r="140" spans="2:3">
-      <c r="B140" s="31" t="s">
+      <c r="B140" s="26" t="s">
         <v>643</v>
       </c>
       <c r="C140" t="s">
@@ -14706,7 +14716,7 @@
       </c>
     </row>
     <row r="141" spans="2:3">
-      <c r="B141" s="31" t="s">
+      <c r="B141" s="26" t="s">
         <v>644</v>
       </c>
       <c r="C141" t="s">
@@ -14714,7 +14724,7 @@
       </c>
     </row>
     <row r="142" spans="2:3">
-      <c r="B142" s="31" t="s">
+      <c r="B142" s="26" t="s">
         <v>645</v>
       </c>
       <c r="C142" t="s">
@@ -14722,7 +14732,7 @@
       </c>
     </row>
     <row r="143" spans="2:3">
-      <c r="B143" s="31" t="s">
+      <c r="B143" s="26" t="s">
         <v>646</v>
       </c>
       <c r="C143" t="s">
@@ -14730,7 +14740,7 @@
       </c>
     </row>
     <row r="144" spans="2:3">
-      <c r="B144" s="31" t="s">
+      <c r="B144" s="26" t="s">
         <v>647</v>
       </c>
       <c r="C144" t="s">
@@ -14738,7 +14748,7 @@
       </c>
     </row>
     <row r="145" spans="2:3">
-      <c r="B145" s="31" t="s">
+      <c r="B145" s="26" t="s">
         <v>648</v>
       </c>
       <c r="C145" t="s">
@@ -14746,7 +14756,7 @@
       </c>
     </row>
     <row r="146" spans="2:3">
-      <c r="B146" s="31" t="s">
+      <c r="B146" s="26" t="s">
         <v>649</v>
       </c>
       <c r="C146" t="s">
@@ -14754,7 +14764,7 @@
       </c>
     </row>
     <row r="147" spans="2:3">
-      <c r="B147" s="31" t="s">
+      <c r="B147" s="26" t="s">
         <v>650</v>
       </c>
       <c r="C147" t="s">
@@ -14762,7 +14772,7 @@
       </c>
     </row>
     <row r="148" spans="2:3">
-      <c r="B148" s="31" t="s">
+      <c r="B148" s="26" t="s">
         <v>651</v>
       </c>
       <c r="C148" t="s">
@@ -14770,7 +14780,7 @@
       </c>
     </row>
     <row r="149" spans="2:3">
-      <c r="B149" s="31" t="s">
+      <c r="B149" s="26" t="s">
         <v>652</v>
       </c>
       <c r="C149" t="s">
@@ -14778,7 +14788,7 @@
       </c>
     </row>
     <row r="150" spans="2:3">
-      <c r="B150" s="31" t="s">
+      <c r="B150" s="26" t="s">
         <v>653</v>
       </c>
       <c r="C150" t="s">
@@ -14786,7 +14796,7 @@
       </c>
     </row>
     <row r="151" spans="2:3">
-      <c r="B151" s="31" t="s">
+      <c r="B151" s="26" t="s">
         <v>654</v>
       </c>
       <c r="C151" t="s">
@@ -14794,7 +14804,7 @@
       </c>
     </row>
     <row r="152" spans="2:3">
-      <c r="B152" s="31" t="s">
+      <c r="B152" s="26" t="s">
         <v>655</v>
       </c>
       <c r="C152" t="s">
@@ -14802,7 +14812,7 @@
       </c>
     </row>
     <row r="153" spans="2:3">
-      <c r="B153" s="31" t="s">
+      <c r="B153" s="26" t="s">
         <v>656</v>
       </c>
       <c r="C153" t="s">
@@ -14810,7 +14820,7 @@
       </c>
     </row>
     <row r="154" spans="2:3">
-      <c r="B154" s="31" t="s">
+      <c r="B154" s="26" t="s">
         <v>657</v>
       </c>
       <c r="C154" t="s">
@@ -14818,7 +14828,7 @@
       </c>
     </row>
     <row r="155" spans="2:3">
-      <c r="B155" s="31" t="s">
+      <c r="B155" s="26" t="s">
         <v>658</v>
       </c>
       <c r="C155" t="s">
@@ -14826,7 +14836,7 @@
       </c>
     </row>
     <row r="156" spans="2:3">
-      <c r="B156" s="31" t="s">
+      <c r="B156" s="26" t="s">
         <v>659</v>
       </c>
       <c r="C156" t="s">
@@ -14834,7 +14844,7 @@
       </c>
     </row>
     <row r="157" spans="2:3">
-      <c r="B157" s="31" t="s">
+      <c r="B157" s="26" t="s">
         <v>660</v>
       </c>
       <c r="C157" t="s">
@@ -14842,7 +14852,7 @@
       </c>
     </row>
     <row r="158" spans="2:3">
-      <c r="B158" s="31" t="s">
+      <c r="B158" s="26" t="s">
         <v>661</v>
       </c>
       <c r="C158" t="s">
@@ -14850,7 +14860,7 @@
       </c>
     </row>
     <row r="159" spans="2:3">
-      <c r="B159" s="31" t="s">
+      <c r="B159" s="26" t="s">
         <v>662</v>
       </c>
       <c r="C159" t="s">
@@ -14858,7 +14868,7 @@
       </c>
     </row>
     <row r="160" spans="2:3">
-      <c r="B160" s="31" t="s">
+      <c r="B160" s="26" t="s">
         <v>663</v>
       </c>
       <c r="C160" t="s">
@@ -14866,7 +14876,7 @@
       </c>
     </row>
     <row r="161" spans="2:3">
-      <c r="B161" s="31" t="s">
+      <c r="B161" s="26" t="s">
         <v>664</v>
       </c>
       <c r="C161" t="s">
@@ -14874,7 +14884,7 @@
       </c>
     </row>
     <row r="162" spans="2:3">
-      <c r="B162" s="31" t="s">
+      <c r="B162" s="26" t="s">
         <v>665</v>
       </c>
       <c r="C162" t="s">
@@ -14882,7 +14892,7 @@
       </c>
     </row>
     <row r="163" spans="2:3">
-      <c r="B163" s="31" t="s">
+      <c r="B163" s="26" t="s">
         <v>666</v>
       </c>
       <c r="C163" t="s">
@@ -14890,7 +14900,7 @@
       </c>
     </row>
     <row r="164" spans="2:3">
-      <c r="B164" s="31" t="s">
+      <c r="B164" s="26" t="s">
         <v>667</v>
       </c>
       <c r="C164" t="s">
@@ -14898,7 +14908,7 @@
       </c>
     </row>
     <row r="165" spans="2:3">
-      <c r="B165" s="31" t="s">
+      <c r="B165" s="26" t="s">
         <v>668</v>
       </c>
       <c r="C165" t="s">
@@ -14906,7 +14916,7 @@
       </c>
     </row>
     <row r="166" spans="2:3">
-      <c r="B166" s="31" t="s">
+      <c r="B166" s="26" t="s">
         <v>669</v>
       </c>
       <c r="C166" t="s">
@@ -14914,7 +14924,7 @@
       </c>
     </row>
     <row r="167" spans="2:3">
-      <c r="B167" s="31" t="s">
+      <c r="B167" s="26" t="s">
         <v>670</v>
       </c>
       <c r="C167" t="s">
@@ -14922,7 +14932,7 @@
       </c>
     </row>
     <row r="168" spans="2:3">
-      <c r="B168" s="31" t="s">
+      <c r="B168" s="26" t="s">
         <v>671</v>
       </c>
       <c r="C168" t="s">
@@ -14930,7 +14940,7 @@
       </c>
     </row>
     <row r="169" spans="2:3">
-      <c r="B169" s="31" t="s">
+      <c r="B169" s="26" t="s">
         <v>672</v>
       </c>
       <c r="C169" t="s">
@@ -14938,7 +14948,7 @@
       </c>
     </row>
     <row r="170" spans="2:3">
-      <c r="B170" s="31" t="s">
+      <c r="B170" s="26" t="s">
         <v>673</v>
       </c>
       <c r="C170" t="s">
@@ -14946,7 +14956,7 @@
       </c>
     </row>
     <row r="171" spans="2:3">
-      <c r="B171" s="31" t="s">
+      <c r="B171" s="26" t="s">
         <v>674</v>
       </c>
       <c r="C171" t="s">
@@ -14954,7 +14964,7 @@
       </c>
     </row>
     <row r="172" spans="2:3">
-      <c r="B172" s="31" t="s">
+      <c r="B172" s="26" t="s">
         <v>675</v>
       </c>
       <c r="C172" t="s">
@@ -14962,7 +14972,7 @@
       </c>
     </row>
     <row r="173" spans="2:3">
-      <c r="B173" s="31" t="s">
+      <c r="B173" s="26" t="s">
         <v>676</v>
       </c>
       <c r="C173" t="s">
@@ -14970,7 +14980,7 @@
       </c>
     </row>
     <row r="174" spans="2:3">
-      <c r="B174" s="31" t="s">
+      <c r="B174" s="26" t="s">
         <v>677</v>
       </c>
       <c r="C174" t="s">
@@ -14978,7 +14988,7 @@
       </c>
     </row>
     <row r="175" spans="2:3">
-      <c r="B175" s="31" t="s">
+      <c r="B175" s="26" t="s">
         <v>678</v>
       </c>
       <c r="C175" t="s">
@@ -14986,7 +14996,7 @@
       </c>
     </row>
     <row r="176" spans="2:3">
-      <c r="B176" s="31" t="s">
+      <c r="B176" s="26" t="s">
         <v>679</v>
       </c>
       <c r="C176" t="s">
@@ -14994,7 +15004,7 @@
       </c>
     </row>
     <row r="177" spans="2:3">
-      <c r="B177" s="31" t="s">
+      <c r="B177" s="26" t="s">
         <v>680</v>
       </c>
       <c r="C177" t="s">
@@ -15002,7 +15012,7 @@
       </c>
     </row>
     <row r="178" spans="2:3">
-      <c r="B178" s="31" t="s">
+      <c r="B178" s="26" t="s">
         <v>681</v>
       </c>
       <c r="C178" t="s">
@@ -15010,7 +15020,7 @@
       </c>
     </row>
     <row r="179" spans="2:3">
-      <c r="B179" s="31" t="s">
+      <c r="B179" s="26" t="s">
         <v>682</v>
       </c>
       <c r="C179" t="s">
@@ -15018,7 +15028,7 @@
       </c>
     </row>
     <row r="180" spans="2:3">
-      <c r="B180" s="31" t="s">
+      <c r="B180" s="26" t="s">
         <v>683</v>
       </c>
       <c r="C180" t="s">
@@ -15026,7 +15036,7 @@
       </c>
     </row>
     <row r="181" spans="2:3">
-      <c r="B181" s="31" t="s">
+      <c r="B181" s="26" t="s">
         <v>684</v>
       </c>
       <c r="C181" t="s">
@@ -15034,7 +15044,7 @@
       </c>
     </row>
     <row r="182" spans="2:3">
-      <c r="B182" s="31" t="s">
+      <c r="B182" s="26" t="s">
         <v>685</v>
       </c>
       <c r="C182" t="s">
@@ -15042,7 +15052,7 @@
       </c>
     </row>
     <row r="183" spans="2:3">
-      <c r="B183" s="31" t="s">
+      <c r="B183" s="26" t="s">
         <v>686</v>
       </c>
       <c r="C183" t="s">
@@ -15050,7 +15060,7 @@
       </c>
     </row>
     <row r="184" spans="2:3">
-      <c r="B184" s="31" t="s">
+      <c r="B184" s="26" t="s">
         <v>687</v>
       </c>
       <c r="C184" t="s">
@@ -15058,7 +15068,7 @@
       </c>
     </row>
     <row r="185" spans="2:3">
-      <c r="B185" s="31" t="s">
+      <c r="B185" s="26" t="s">
         <v>688</v>
       </c>
       <c r="C185" t="s">
@@ -15066,7 +15076,7 @@
       </c>
     </row>
     <row r="186" spans="2:3">
-      <c r="B186" s="31" t="s">
+      <c r="B186" s="26" t="s">
         <v>689</v>
       </c>
       <c r="C186" t="s">
@@ -15074,7 +15084,7 @@
       </c>
     </row>
     <row r="187" spans="2:3">
-      <c r="B187" s="31" t="s">
+      <c r="B187" s="26" t="s">
         <v>690</v>
       </c>
       <c r="C187" t="s">
@@ -15082,7 +15092,7 @@
       </c>
     </row>
     <row r="188" spans="2:3">
-      <c r="B188" s="31" t="s">
+      <c r="B188" s="26" t="s">
         <v>691</v>
       </c>
       <c r="C188" t="s">
@@ -15090,7 +15100,7 @@
       </c>
     </row>
     <row r="189" spans="2:3">
-      <c r="B189" s="31" t="s">
+      <c r="B189" s="26" t="s">
         <v>692</v>
       </c>
       <c r="C189" t="s">
@@ -15098,7 +15108,7 @@
       </c>
     </row>
     <row r="190" spans="2:3">
-      <c r="B190" s="31" t="s">
+      <c r="B190" s="26" t="s">
         <v>693</v>
       </c>
       <c r="C190" t="s">
@@ -15106,7 +15116,7 @@
       </c>
     </row>
     <row r="191" spans="2:3">
-      <c r="B191" s="31" t="s">
+      <c r="B191" s="26" t="s">
         <v>694</v>
       </c>
       <c r="C191" t="s">
@@ -15114,7 +15124,7 @@
       </c>
     </row>
     <row r="192" spans="2:3">
-      <c r="B192" s="31" t="s">
+      <c r="B192" s="26" t="s">
         <v>695</v>
       </c>
       <c r="C192" t="s">
@@ -15122,7 +15132,7 @@
       </c>
     </row>
     <row r="193" spans="2:3">
-      <c r="B193" s="31" t="s">
+      <c r="B193" s="26" t="s">
         <v>696</v>
       </c>
       <c r="C193" t="s">
@@ -15130,7 +15140,7 @@
       </c>
     </row>
     <row r="194" spans="2:3">
-      <c r="B194" s="31" t="s">
+      <c r="B194" s="26" t="s">
         <v>697</v>
       </c>
       <c r="C194" t="s">
@@ -15138,7 +15148,7 @@
       </c>
     </row>
     <row r="195" spans="2:3">
-      <c r="B195" s="31" t="s">
+      <c r="B195" s="26" t="s">
         <v>698</v>
       </c>
       <c r="C195" t="s">
@@ -15146,252 +15156,252 @@
       </c>
     </row>
     <row r="196" spans="2:3">
-      <c r="B196" s="31" t="s">
+      <c r="B196" s="26" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="197" spans="2:3">
-      <c r="B197" s="31" t="s">
+      <c r="B197" s="26" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="198" spans="2:3">
-      <c r="B198" s="31" t="s">
+      <c r="B198" s="26" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="199" spans="2:3">
-      <c r="B199" s="31" t="s">
+      <c r="B199" s="26" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="200" spans="2:3">
-      <c r="B200" s="31" t="s">
+      <c r="B200" s="26" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="201" spans="2:3">
-      <c r="B201" s="31" t="s">
+      <c r="B201" s="26" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="202" spans="2:3">
-      <c r="B202" s="31" t="s">
+      <c r="B202" s="26" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="203" spans="2:3">
-      <c r="B203" s="31" t="s">
+      <c r="B203" s="26" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="204" spans="2:3">
-      <c r="B204" s="31" t="s">
+      <c r="B204" s="26" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="205" spans="2:3">
-      <c r="B205" s="31" t="s">
+      <c r="B205" s="26" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="206" spans="2:3">
-      <c r="B206" s="31" t="s">
+      <c r="B206" s="26" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="207" spans="2:3">
-      <c r="B207" s="31" t="s">
+      <c r="B207" s="26" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="208" spans="2:3">
-      <c r="B208" s="31" t="s">
+      <c r="B208" s="26" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="209" spans="2:2">
-      <c r="B209" s="31" t="s">
+      <c r="B209" s="26" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="210" spans="2:2">
-      <c r="B210" s="31" t="s">
+      <c r="B210" s="26" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="211" spans="2:2">
-      <c r="B211" s="31" t="s">
+      <c r="B211" s="26" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="212" spans="2:2">
-      <c r="B212" s="31" t="s">
+      <c r="B212" s="26" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="213" spans="2:2">
-      <c r="B213" s="31" t="s">
+      <c r="B213" s="26" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="214" spans="2:2">
-      <c r="B214" s="31" t="s">
+      <c r="B214" s="26" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="215" spans="2:2">
-      <c r="B215" s="31" t="s">
+      <c r="B215" s="26" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="216" spans="2:2">
-      <c r="B216" s="31" t="s">
+      <c r="B216" s="26" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="217" spans="2:2">
-      <c r="B217" s="31" t="s">
+      <c r="B217" s="26" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="218" spans="2:2">
-      <c r="B218" s="31" t="s">
+      <c r="B218" s="26" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="219" spans="2:2">
-      <c r="B219" s="31" t="s">
+      <c r="B219" s="26" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="220" spans="2:2">
-      <c r="B220" s="31" t="s">
+      <c r="B220" s="26" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="221" spans="2:2">
-      <c r="B221" s="31" t="s">
+      <c r="B221" s="26" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="222" spans="2:2">
-      <c r="B222" s="31" t="s">
+      <c r="B222" s="26" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="223" spans="2:2">
-      <c r="B223" s="31" t="s">
+      <c r="B223" s="26" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="224" spans="2:2">
-      <c r="B224" s="31" t="s">
+      <c r="B224" s="26" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="225" spans="2:2">
-      <c r="B225" s="31" t="s">
+      <c r="B225" s="26" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="226" spans="2:2">
-      <c r="B226" s="31" t="s">
+      <c r="B226" s="26" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="227" spans="2:2">
-      <c r="B227" s="31" t="s">
+      <c r="B227" s="26" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="228" spans="2:2">
-      <c r="B228" s="31" t="s">
+      <c r="B228" s="26" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="229" spans="2:2">
-      <c r="B229" s="31" t="s">
+      <c r="B229" s="26" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="230" spans="2:2">
-      <c r="B230" s="31" t="s">
+      <c r="B230" s="26" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="231" spans="2:2">
-      <c r="B231" s="31" t="s">
+      <c r="B231" s="26" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="232" spans="2:2">
-      <c r="B232" s="31" t="s">
+      <c r="B232" s="26" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="233" spans="2:2">
-      <c r="B233" s="31" t="s">
+      <c r="B233" s="26" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="234" spans="2:2">
-      <c r="B234" s="31" t="s">
+      <c r="B234" s="26" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="235" spans="2:2">
-      <c r="B235" s="31" t="s">
+      <c r="B235" s="26" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="236" spans="2:2">
-      <c r="B236" s="31" t="s">
+      <c r="B236" s="26" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="237" spans="2:2">
-      <c r="B237" s="31" t="s">
+      <c r="B237" s="26" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="238" spans="2:2">
-      <c r="B238" s="31" t="s">
+      <c r="B238" s="26" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="239" spans="2:2">
-      <c r="B239" s="31" t="s">
+      <c r="B239" s="26" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="240" spans="2:2">
-      <c r="B240" s="31" t="s">
+      <c r="B240" s="26" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="241" spans="2:2">
-      <c r="B241" s="31" t="s">
+      <c r="B241" s="26" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="242" spans="2:2">
-      <c r="B242" s="31" t="s">
+      <c r="B242" s="26" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="243" spans="2:2">
-      <c r="B243" s="31" t="s">
+      <c r="B243" s="26" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="244" spans="2:2">
-      <c r="B244" s="31" t="s">
+      <c r="B244" s="26" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="245" spans="2:2">
-      <c r="B245" s="31" t="s">
+      <c r="B245" s="26" t="s">
         <v>748</v>
       </c>
     </row>
